--- a/Original_Excel_Files/B1-99.xlsx
+++ b/Original_Excel_Files/B1-99.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24326"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8023A8A8-0F9A-47BC-B1DC-CEAF023B089D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{607F549F-DD35-4E75-B9FE-7EAAAB3E0418}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="30285" yWindow="2610" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="382" uniqueCount="358">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="589" uniqueCount="529">
   <si>
     <t>B1 .D54 v 7 n 7-8</t>
   </si>
@@ -1091,6 +1091,519 @@
   </si>
   <si>
     <t>Title</t>
+  </si>
+  <si>
+    <t>Author</t>
+  </si>
+  <si>
+    <t>Polish Academy of Sciences</t>
+  </si>
+  <si>
+    <t>Stevenson</t>
+  </si>
+  <si>
+    <t>Charles L.</t>
+  </si>
+  <si>
+    <t>Deutsch</t>
+  </si>
+  <si>
+    <t>Elliot (Ed)</t>
+  </si>
+  <si>
+    <t>The American Philosophical Association</t>
+  </si>
+  <si>
+    <t>Abernethy, George L. and Thomas A. Langford</t>
+  </si>
+  <si>
+    <t>Alston</t>
+  </si>
+  <si>
+    <t>William P.</t>
+  </si>
+  <si>
+    <t>Pojman, Louis P.</t>
+  </si>
+  <si>
+    <t>Eastman</t>
+  </si>
+  <si>
+    <t>Roger</t>
+  </si>
+  <si>
+    <t>Epstein, Joseph and Gail Kennedy</t>
+  </si>
+  <si>
+    <t>Flew, Antony</t>
+  </si>
+  <si>
+    <t>Flew</t>
+  </si>
+  <si>
+    <t>Antony Ed.</t>
+  </si>
+  <si>
+    <t>Kolak, Daniel</t>
+  </si>
+  <si>
+    <t>Lipman</t>
+  </si>
+  <si>
+    <t>Matthew</t>
+  </si>
+  <si>
+    <t>Monson, Charles H. ed.</t>
+  </si>
+  <si>
+    <t>Baird, Forrest E. and Walter Kaufmann</t>
+  </si>
+  <si>
+    <t>Baird, Forrest E. and Kaufmann, Walter</t>
+  </si>
+  <si>
+    <t>French</t>
+  </si>
+  <si>
+    <t>Peter A.</t>
+  </si>
+  <si>
+    <t>Porter</t>
+  </si>
+  <si>
+    <t>Burton F.</t>
+  </si>
+  <si>
+    <t>Radhakrishnan</t>
+  </si>
+  <si>
+    <t>Sarvepalli</t>
+  </si>
+  <si>
+    <t>Needleman, Jacob and Appelbaum, David</t>
+  </si>
+  <si>
+    <t>Singer</t>
+  </si>
+  <si>
+    <t>Marcus G.</t>
+  </si>
+  <si>
+    <t>Struhl</t>
+  </si>
+  <si>
+    <t>Paula Rothenberg</t>
+  </si>
+  <si>
+    <t>Tillman</t>
+  </si>
+  <si>
+    <t>Frank A.</t>
+  </si>
+  <si>
+    <t>Titus</t>
+  </si>
+  <si>
+    <t>Harold H.</t>
+  </si>
+  <si>
+    <t>Tsambassis</t>
+  </si>
+  <si>
+    <t>Alexander N.</t>
+  </si>
+  <si>
+    <t>Abel, Donald C.</t>
+  </si>
+  <si>
+    <t>Bierman</t>
+  </si>
+  <si>
+    <t>A.K.</t>
+  </si>
+  <si>
+    <t>Buber, Matin</t>
+  </si>
+  <si>
+    <t>Cahn, Steven M.</t>
+  </si>
+  <si>
+    <t>Dummett</t>
+  </si>
+  <si>
+    <t>Michael</t>
+  </si>
+  <si>
+    <t>Kolak</t>
+  </si>
+  <si>
+    <t>Daniel</t>
+  </si>
+  <si>
+    <t>Gardner</t>
+  </si>
+  <si>
+    <t>Martin</t>
+  </si>
+  <si>
+    <t>Goodman, Nelson</t>
+  </si>
+  <si>
+    <t>eds. Hofstadter, Douglas R. and Dennett, Daniel C.</t>
+  </si>
+  <si>
+    <t>MacIntyre</t>
+  </si>
+  <si>
+    <t>Alasdair</t>
+  </si>
+  <si>
+    <t>Ed. Frost, S.E. Jr.</t>
+  </si>
+  <si>
+    <t>Ed Frost, S.E. Jr.</t>
+  </si>
+  <si>
+    <t>Needleman, Jacob</t>
+  </si>
+  <si>
+    <t>Edwards</t>
+  </si>
+  <si>
+    <t>James C.</t>
+  </si>
+  <si>
+    <t>Ohio St. University</t>
+  </si>
+  <si>
+    <t>Richter</t>
+  </si>
+  <si>
+    <t>Peyton E.</t>
+  </si>
+  <si>
+    <t>Klemke</t>
+  </si>
+  <si>
+    <t>E.D.</t>
+  </si>
+  <si>
+    <t>Addis, Laird ed.</t>
+  </si>
+  <si>
+    <t>Feinberg</t>
+  </si>
+  <si>
+    <t>Joel</t>
+  </si>
+  <si>
+    <t>Rorty, Richard</t>
+  </si>
+  <si>
+    <t>Sahakian, William S. and Sahakian, Mabel Lewis</t>
+  </si>
+  <si>
+    <t>Satin</t>
+  </si>
+  <si>
+    <t>Joseph</t>
+  </si>
+  <si>
+    <t>Shibles, Warren</t>
+  </si>
+  <si>
+    <t>Strawson</t>
+  </si>
+  <si>
+    <t>P.F.</t>
+  </si>
+  <si>
+    <t>Wolff</t>
+  </si>
+  <si>
+    <t>Robert Paul</t>
+  </si>
+  <si>
+    <t>Zaitchik</t>
+  </si>
+  <si>
+    <t>Joseph A.</t>
+  </si>
+  <si>
+    <t>Ed. Honderich, Ted</t>
+  </si>
+  <si>
+    <t>Teaching Philosophy</t>
+  </si>
+  <si>
+    <t>Bedau, Hugo</t>
+  </si>
+  <si>
+    <t>Graybosch, Anthony J.; Scott, Gregory M.; Garrison, Stephen M.</t>
+  </si>
+  <si>
+    <t>Vaughn</t>
+  </si>
+  <si>
+    <t>Lewsi</t>
+  </si>
+  <si>
+    <t>Ayer, Alfred Jules</t>
+  </si>
+  <si>
+    <t>Bochenski</t>
+  </si>
+  <si>
+    <t>J.M.</t>
+  </si>
+  <si>
+    <t>Bontempo</t>
+  </si>
+  <si>
+    <t>Charles J.</t>
+  </si>
+  <si>
+    <t>Danto</t>
+  </si>
+  <si>
+    <t>Arthur C</t>
+  </si>
+  <si>
+    <t>Dooyeweerd</t>
+  </si>
+  <si>
+    <t>Herman</t>
+  </si>
+  <si>
+    <t>Johnstone, Jr.</t>
+  </si>
+  <si>
+    <t>Henry W.</t>
+  </si>
+  <si>
+    <t>Lange, John</t>
+  </si>
+  <si>
+    <t>Boylan</t>
+  </si>
+  <si>
+    <t>Thompson, Samuel M.</t>
+  </si>
+  <si>
+    <t>Toulmin</t>
+  </si>
+  <si>
+    <t>Stephen</t>
+  </si>
+  <si>
+    <t>Vandermast</t>
+  </si>
+  <si>
+    <t>Roberta</t>
+  </si>
+  <si>
+    <t>Westphal</t>
+  </si>
+  <si>
+    <t>Fred A.</t>
+  </si>
+  <si>
+    <t>Wheatley</t>
+  </si>
+  <si>
+    <t>Jon</t>
+  </si>
+  <si>
+    <t>Woodhouse</t>
+  </si>
+  <si>
+    <t>Mark B.</t>
+  </si>
+  <si>
+    <t>Gill, Jerry H.</t>
+  </si>
+  <si>
+    <t>Natanson</t>
+  </si>
+  <si>
+    <t>Maurice</t>
+  </si>
+  <si>
+    <t>Bronowski</t>
+  </si>
+  <si>
+    <t>J.</t>
+  </si>
+  <si>
+    <t>Burtt</t>
+  </si>
+  <si>
+    <t>E.A.</t>
+  </si>
+  <si>
+    <t>Adler, Mortimer J.</t>
+  </si>
+  <si>
+    <t>Christian, James L.</t>
+  </si>
+  <si>
+    <t>Popkins, Richard H.</t>
+  </si>
+  <si>
+    <t>Copleston, Frederick</t>
+  </si>
+  <si>
+    <t>Durant, Will</t>
+  </si>
+  <si>
+    <t>Eichhoefer</t>
+  </si>
+  <si>
+    <t>Gerald W.</t>
+  </si>
+  <si>
+    <t>Ferm, Vergilius</t>
+  </si>
+  <si>
+    <t>Fuller, B.A.G</t>
+  </si>
+  <si>
+    <t>Harris</t>
+  </si>
+  <si>
+    <t>Errol E.</t>
+  </si>
+  <si>
+    <t>Jones W.T.</t>
+  </si>
+  <si>
+    <t>Jones, W.T.</t>
+  </si>
+  <si>
+    <t>Jones, W.T. and Robert J. Fogelin</t>
+  </si>
+  <si>
+    <t>Kenny, Anthony</t>
+  </si>
+  <si>
+    <t>Kolenda, Konstantin</t>
+  </si>
+  <si>
+    <t>Lamprecht, Sterling P.</t>
+  </si>
+  <si>
+    <t>Lawhead</t>
+  </si>
+  <si>
+    <t>William F.</t>
+  </si>
+  <si>
+    <t>Matson, Wallace</t>
+  </si>
+  <si>
+    <t>Midgley</t>
+  </si>
+  <si>
+    <t>Mary</t>
+  </si>
+  <si>
+    <t>Needleman</t>
+  </si>
+  <si>
+    <t>Jacob</t>
+  </si>
+  <si>
+    <t>Bonjour</t>
+  </si>
+  <si>
+    <t>Laurence</t>
+  </si>
+  <si>
+    <t>Joan A. Price</t>
+  </si>
+  <si>
+    <t>James, Rachels</t>
+  </si>
+  <si>
+    <t>Russell, Bertrand</t>
+  </si>
+  <si>
+    <t>Solomon, Robert C. and Kathleen M. Higgins</t>
+  </si>
+  <si>
+    <t>Stumpf</t>
+  </si>
+  <si>
+    <t>Samuel E.</t>
+  </si>
+  <si>
+    <t>Stumpf, Samuel Enoch</t>
+  </si>
+  <si>
+    <t>Tarnas, Richard</t>
+  </si>
+  <si>
+    <t>Tsanoff, Radoslav A.</t>
+  </si>
+  <si>
+    <t>Windelband, W.</t>
+  </si>
+  <si>
+    <t>Hawton</t>
+  </si>
+  <si>
+    <t>Hector</t>
+  </si>
+  <si>
+    <t>Hutchison, John A.</t>
+  </si>
+  <si>
+    <t>Georgescu-Roegen</t>
+  </si>
+  <si>
+    <t>Nicholas</t>
+  </si>
+  <si>
+    <t>Palmer</t>
+  </si>
+  <si>
+    <t>Donald</t>
+  </si>
+  <si>
+    <t>Perelman, Ch.</t>
+  </si>
+  <si>
+    <t>Rauhut</t>
+  </si>
+  <si>
+    <t>Nils Ch.</t>
+  </si>
+  <si>
+    <t>Rauhut, Nils Ch. and Smith, Renee</t>
+  </si>
+  <si>
+    <t>Thilly, Frank and Ledger Wood</t>
+  </si>
+  <si>
+    <t>Bentley, John E.</t>
+  </si>
+  <si>
+    <t>ed. Magill, Frank N.</t>
+  </si>
+  <si>
+    <t>Sahakian</t>
+  </si>
+  <si>
+    <t>William S.</t>
+  </si>
+  <si>
+    <t>Brehier, Emile</t>
+  </si>
+  <si>
+    <t>Marias</t>
+  </si>
+  <si>
+    <t>Julian</t>
   </si>
 </sst>
 </file>
@@ -1170,7 +1683,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
@@ -1213,6 +1726,18 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1551,2367 +2076,3023 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J209"/>
+  <dimension ref="A1:L209"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5:B6"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.140625" customWidth="1"/>
-    <col min="2" max="2" width="7.5703125" style="20" customWidth="1"/>
-    <col min="3" max="3" width="98.5703125" customWidth="1"/>
+    <col min="1" max="3" width="21.140625" customWidth="1"/>
+    <col min="4" max="4" width="7.5703125" style="20" customWidth="1"/>
+    <col min="5" max="5" width="98.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>355</v>
       </c>
-      <c r="B1" s="20" t="s">
+      <c r="B1" t="s">
+        <v>358</v>
+      </c>
+      <c r="D1" s="20" t="s">
         <v>356</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E1" t="s">
         <v>357</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="15">
+      <c r="B2" s="22" t="s">
+        <v>359</v>
+      </c>
+      <c r="D2" s="15">
         <v>1997</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="E2" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="9"/>
-      <c r="E2" s="8"/>
       <c r="F2" s="9"/>
-      <c r="G2" s="9"/>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G2" s="8"/>
+      <c r="H2" s="9"/>
+      <c r="I2" s="9"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="16" t="s">
+      <c r="B3" s="24" t="s">
+        <v>360</v>
+      </c>
+      <c r="C3" s="24" t="s">
+        <v>361</v>
+      </c>
+      <c r="D3" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="9" t="s">
+      <c r="E3" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="F3" s="9"/>
-      <c r="G3" s="9"/>
-    </row>
-    <row r="4" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H3" s="9"/>
+      <c r="I3" s="9"/>
+    </row>
+    <row r="4" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="16" t="s">
+      <c r="B4" s="24" t="s">
+        <v>362</v>
+      </c>
+      <c r="C4" s="24" t="s">
+        <v>363</v>
+      </c>
+      <c r="D4" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="9" t="s">
+      <c r="E4" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="9"/>
-      <c r="G4" s="9"/>
-    </row>
-    <row r="5" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H4" s="9"/>
+      <c r="I4" s="9"/>
+    </row>
+    <row r="5" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="6" t="s">
         <v>306</v>
       </c>
-      <c r="B5" s="15">
+      <c r="B5" s="22" t="s">
+        <v>364</v>
+      </c>
+      <c r="D5" s="15">
         <v>2006</v>
       </c>
-      <c r="C5" s="6" t="s">
+      <c r="E5" s="6" t="s">
         <v>307</v>
       </c>
-      <c r="D5" s="9"/>
-      <c r="E5" s="9"/>
       <c r="F5" s="9"/>
       <c r="G5" s="9"/>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H5" s="9"/>
+      <c r="I5" s="9"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="16">
+      <c r="B6" s="23" t="s">
+        <v>365</v>
+      </c>
+      <c r="D6" s="16">
         <v>1965</v>
       </c>
-      <c r="C6" s="8" t="s">
+      <c r="E6" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="D6" s="8"/>
-      <c r="E6" s="8"/>
-      <c r="F6" s="9"/>
-      <c r="G6" s="9"/>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F6" s="8"/>
+      <c r="G6" s="8"/>
+      <c r="H6" s="9"/>
+      <c r="I6" s="9"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="16" t="s">
+      <c r="B7" s="24" t="s">
+        <v>366</v>
+      </c>
+      <c r="C7" s="24" t="s">
+        <v>367</v>
+      </c>
+      <c r="D7" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="9" t="s">
+      <c r="E7" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="F7" s="9"/>
-      <c r="G7" s="9"/>
-    </row>
-    <row r="8" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H7" s="9"/>
+      <c r="I7" s="9"/>
+    </row>
+    <row r="8" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="16" t="s">
+      <c r="B8" s="9"/>
+      <c r="C8" s="9"/>
+      <c r="D8" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="C8" s="9" t="s">
+      <c r="E8" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="D8" s="9"/>
-      <c r="E8" s="8"/>
       <c r="F8" s="9"/>
-      <c r="G8" s="9"/>
-    </row>
-    <row r="9" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G8" s="8"/>
+      <c r="H8" s="9"/>
+      <c r="I8" s="9"/>
+    </row>
+    <row r="9" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="B9" s="15">
+      <c r="B9" s="27" t="s">
+        <v>368</v>
+      </c>
+      <c r="D9" s="15">
         <v>1998</v>
       </c>
-      <c r="C9" s="6" t="s">
+      <c r="E9" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="D9" s="9"/>
-      <c r="E9" s="9"/>
       <c r="F9" s="9"/>
       <c r="G9" s="9"/>
-    </row>
-    <row r="10" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H9" s="9"/>
+      <c r="I9" s="9"/>
+    </row>
+    <row r="10" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="B10" s="16" t="s">
+      <c r="B10" s="29" t="s">
+        <v>369</v>
+      </c>
+      <c r="C10" s="29" t="s">
+        <v>370</v>
+      </c>
+      <c r="D10" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="C10" s="9" t="s">
+      <c r="E10" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="F10" s="9"/>
-      <c r="G10" s="9"/>
-    </row>
-    <row r="11" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H10" s="9"/>
+      <c r="I10" s="9"/>
+    </row>
+    <row r="11" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="B11" s="15">
+      <c r="B11" s="27" t="s">
+        <v>371</v>
+      </c>
+      <c r="D11" s="15">
         <v>1967</v>
       </c>
-      <c r="C11" s="6" t="s">
+      <c r="E11" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="D11" s="9"/>
-      <c r="E11" s="9"/>
       <c r="F11" s="9"/>
       <c r="G11" s="9"/>
-    </row>
-    <row r="12" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H11" s="9"/>
+      <c r="I11" s="9"/>
+    </row>
+    <row r="12" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="B12" s="15">
+      <c r="B12" s="27" t="s">
+        <v>372</v>
+      </c>
+      <c r="D12" s="15">
         <v>1971</v>
       </c>
-      <c r="C12" s="6" t="s">
+      <c r="E12" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="D12" s="9"/>
-      <c r="E12" s="8"/>
       <c r="F12" s="9"/>
-      <c r="G12" s="9"/>
-    </row>
-    <row r="13" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G12" s="8"/>
+      <c r="H12" s="9"/>
+      <c r="I12" s="9"/>
+    </row>
+    <row r="13" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="B13" s="16">
+      <c r="B13" s="29" t="s">
+        <v>373</v>
+      </c>
+      <c r="C13" s="29" t="s">
+        <v>374</v>
+      </c>
+      <c r="D13" s="16">
         <v>1966</v>
       </c>
-      <c r="C13" s="9" t="s">
+      <c r="E13" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="E13" s="10"/>
-    </row>
-    <row r="14" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G13" s="10"/>
+    </row>
+    <row r="14" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="B14" s="15">
+      <c r="B14" s="27" t="s">
+        <v>375</v>
+      </c>
+      <c r="D14" s="15">
         <v>1998</v>
       </c>
-      <c r="C14" s="6" t="s">
+      <c r="E14" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="D14" s="9"/>
-      <c r="E14" s="8"/>
       <c r="F14" s="9"/>
-      <c r="G14" s="9"/>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G14" s="8"/>
+      <c r="H14" s="9"/>
+      <c r="I14" s="9"/>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="B15" s="16" t="s">
+      <c r="B15" s="29" t="s">
+        <v>376</v>
+      </c>
+      <c r="C15" s="29" t="s">
+        <v>377</v>
+      </c>
+      <c r="D15" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="C15" s="9" t="s">
+      <c r="E15" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="F15" s="9"/>
-      <c r="G15" s="9"/>
-    </row>
-    <row r="16" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H15" s="9"/>
+      <c r="I15" s="9"/>
+    </row>
+    <row r="16" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="B16" s="16">
+      <c r="B16" s="28" t="s">
+        <v>378</v>
+      </c>
+      <c r="D16" s="16">
         <v>1963</v>
       </c>
-      <c r="C16" s="8" t="s">
+      <c r="E16" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="D16" s="8"/>
-      <c r="E16" s="8"/>
-      <c r="F16" s="9"/>
-      <c r="G16" s="9"/>
-    </row>
-    <row r="17" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F16" s="8"/>
+      <c r="G16" s="8"/>
+      <c r="H16" s="9"/>
+      <c r="I16" s="9"/>
+    </row>
+    <row r="17" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="B17" s="15">
+      <c r="B17" s="27" t="s">
+        <v>379</v>
+      </c>
+      <c r="D17" s="15">
         <v>1996</v>
       </c>
-      <c r="C17" s="6" t="s">
+      <c r="E17" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="D17" s="9"/>
-      <c r="E17" s="9"/>
       <c r="F17" s="9"/>
       <c r="G17" s="9"/>
-    </row>
-    <row r="18" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H17" s="9"/>
+      <c r="I17" s="9"/>
+    </row>
+    <row r="18" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="6" t="s">
         <v>308</v>
       </c>
-      <c r="B18" s="15">
+      <c r="B18" s="27" t="s">
+        <v>380</v>
+      </c>
+      <c r="D18" s="15">
         <v>2000</v>
       </c>
-      <c r="C18" s="6" t="s">
+      <c r="E18" s="6" t="s">
         <v>309</v>
       </c>
-      <c r="D18" s="9"/>
-      <c r="E18" s="9"/>
       <c r="F18" s="9"/>
       <c r="G18" s="9"/>
-    </row>
-    <row r="19" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H18" s="9"/>
+      <c r="I18" s="9"/>
+    </row>
+    <row r="19" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="6" t="s">
         <v>310</v>
       </c>
-      <c r="B19" s="15">
+      <c r="B19" s="27" t="s">
+        <v>380</v>
+      </c>
+      <c r="D19" s="15">
         <v>2000</v>
       </c>
-      <c r="C19" s="6" t="s">
+      <c r="E19" s="6" t="s">
         <v>311</v>
       </c>
-      <c r="D19" s="9"/>
-      <c r="E19" s="9"/>
       <c r="F19" s="9"/>
       <c r="G19" s="9"/>
-    </row>
-    <row r="20" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H19" s="9"/>
+      <c r="I19" s="9"/>
+    </row>
+    <row r="20" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="6" t="s">
         <v>312</v>
       </c>
-      <c r="B20" s="15">
+      <c r="B20" s="27" t="s">
+        <v>380</v>
+      </c>
+      <c r="D20" s="15">
         <v>2000</v>
       </c>
-      <c r="C20" s="6" t="s">
+      <c r="E20" s="6" t="s">
         <v>313</v>
       </c>
-      <c r="D20" s="9"/>
-      <c r="E20" s="9"/>
       <c r="F20" s="9"/>
       <c r="G20" s="9"/>
-    </row>
-    <row r="21" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H20" s="9"/>
+      <c r="I20" s="9"/>
+    </row>
+    <row r="21" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="6" t="s">
         <v>314</v>
       </c>
-      <c r="B21" s="15">
+      <c r="B21" s="27" t="s">
+        <v>380</v>
+      </c>
+      <c r="D21" s="15">
         <v>2000</v>
       </c>
-      <c r="C21" s="6" t="s">
+      <c r="E21" s="6" t="s">
         <v>315</v>
       </c>
-      <c r="D21" s="9"/>
-      <c r="E21" s="9"/>
       <c r="F21" s="9"/>
       <c r="G21" s="9"/>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H21" s="9"/>
+      <c r="I21" s="9"/>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="B22" s="16" t="s">
+      <c r="B22" s="29" t="s">
+        <v>381</v>
+      </c>
+      <c r="C22" s="29" t="s">
+        <v>382</v>
+      </c>
+      <c r="D22" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="C22" s="9" t="s">
+      <c r="E22" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="F22" s="9"/>
-      <c r="G22" s="9"/>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H22" s="9"/>
+      <c r="I22" s="9"/>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="B23" s="16" t="s">
+      <c r="B23" s="29" t="s">
+        <v>383</v>
+      </c>
+      <c r="C23" s="29" t="s">
+        <v>384</v>
+      </c>
+      <c r="D23" s="16" t="s">
         <v>40</v>
       </c>
-      <c r="C23" s="9" t="s">
+      <c r="E23" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="F23" s="9"/>
-      <c r="G23" s="9"/>
-    </row>
-    <row r="24" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H23" s="9"/>
+      <c r="I23" s="9"/>
+    </row>
+    <row r="24" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="B24" s="16" t="s">
+      <c r="B24" s="29" t="s">
+        <v>385</v>
+      </c>
+      <c r="C24" s="29" t="s">
+        <v>386</v>
+      </c>
+      <c r="D24" s="16" t="s">
         <v>43</v>
       </c>
-      <c r="C24" s="9" t="s">
+      <c r="E24" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="F24" s="9"/>
-      <c r="G24" s="9"/>
-    </row>
-    <row r="25" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H24" s="9"/>
+      <c r="I24" s="9"/>
+    </row>
+    <row r="25" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="B25" s="15">
+      <c r="B25" s="27" t="s">
+        <v>387</v>
+      </c>
+      <c r="D25" s="15">
         <v>1990</v>
       </c>
-      <c r="C25" s="6" t="s">
+      <c r="E25" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="D25" s="9"/>
-      <c r="E25" s="8"/>
       <c r="F25" s="9"/>
-      <c r="G25" s="9"/>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G25" s="8"/>
+      <c r="H25" s="9"/>
+      <c r="I25" s="9"/>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="B26" s="16" t="s">
+      <c r="B26" s="29" t="s">
+        <v>388</v>
+      </c>
+      <c r="C26" s="29" t="s">
+        <v>389</v>
+      </c>
+      <c r="D26" s="16" t="s">
         <v>40</v>
       </c>
-      <c r="C26" s="9" t="s">
+      <c r="E26" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="F26" s="9"/>
-      <c r="G26" s="9"/>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H26" s="9"/>
+      <c r="I26" s="9"/>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="B27" s="16" t="s">
+      <c r="B27" s="29" t="s">
+        <v>390</v>
+      </c>
+      <c r="C27" s="29" t="s">
+        <v>391</v>
+      </c>
+      <c r="D27" s="16" t="s">
         <v>50</v>
       </c>
-      <c r="C27" s="9" t="s">
+      <c r="E27" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="F27" s="9"/>
-      <c r="G27" s="9"/>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H27" s="9"/>
+      <c r="I27" s="9"/>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="B28" s="16" t="s">
+      <c r="B28" s="29" t="s">
+        <v>392</v>
+      </c>
+      <c r="C28" s="29" t="s">
+        <v>393</v>
+      </c>
+      <c r="D28" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="C28" s="9" t="s">
+      <c r="E28" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="F28" s="9"/>
-      <c r="G28" s="9"/>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H28" s="9"/>
+      <c r="I28" s="9"/>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="B29" s="16" t="s">
+      <c r="B29" s="29" t="s">
+        <v>394</v>
+      </c>
+      <c r="C29" s="29" t="s">
+        <v>395</v>
+      </c>
+      <c r="D29" s="16" t="s">
         <v>55</v>
       </c>
-      <c r="C29" s="9" t="s">
+      <c r="E29" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="F29" s="9"/>
-      <c r="G29" s="9"/>
-    </row>
-    <row r="30" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H29" s="9"/>
+      <c r="I29" s="9"/>
+    </row>
+    <row r="30" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="B30" s="16" t="s">
+      <c r="B30" s="29" t="s">
+        <v>396</v>
+      </c>
+      <c r="C30" s="29" t="s">
+        <v>397</v>
+      </c>
+      <c r="D30" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="C30" s="9" t="s">
+      <c r="E30" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="F30" s="9"/>
-      <c r="G30" s="9"/>
-    </row>
-    <row r="31" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H30" s="9"/>
+      <c r="I30" s="9"/>
+    </row>
+    <row r="31" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="B31" s="15">
+      <c r="B31" s="27" t="s">
+        <v>398</v>
+      </c>
+      <c r="D31" s="15">
         <v>1992</v>
       </c>
-      <c r="C31" s="6" t="s">
+      <c r="E31" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="D31" s="9"/>
-      <c r="E31" s="8"/>
       <c r="F31" s="9"/>
-      <c r="G31" s="9"/>
-    </row>
-    <row r="32" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G31" s="8"/>
+      <c r="H31" s="9"/>
+      <c r="I31" s="9"/>
+    </row>
+    <row r="32" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="B32" s="16" t="s">
+      <c r="B32" s="29" t="s">
+        <v>399</v>
+      </c>
+      <c r="C32" s="29" t="s">
+        <v>400</v>
+      </c>
+      <c r="D32" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="C32" s="9" t="s">
+      <c r="E32" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="F32" s="9"/>
-      <c r="G32" s="9"/>
-    </row>
-    <row r="33" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H32" s="9"/>
+      <c r="I32" s="9"/>
+    </row>
+    <row r="33" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="B33" s="15">
+      <c r="B33" s="27" t="s">
+        <v>401</v>
+      </c>
+      <c r="D33" s="15">
         <v>1955</v>
       </c>
-      <c r="C33" s="6" t="s">
+      <c r="E33" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="D33" s="9"/>
-      <c r="E33" s="8"/>
       <c r="F33" s="9"/>
-      <c r="G33" s="9"/>
-    </row>
-    <row r="34" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G33" s="8"/>
+      <c r="H33" s="9"/>
+      <c r="I33" s="9"/>
+    </row>
+    <row r="34" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="B34" s="15">
+      <c r="B34" s="27" t="s">
+        <v>402</v>
+      </c>
+      <c r="D34" s="15">
         <v>1985</v>
       </c>
-      <c r="C34" s="6" t="s">
+      <c r="E34" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="D34" s="9"/>
-      <c r="E34" s="8"/>
       <c r="F34" s="9"/>
-      <c r="G34" s="9"/>
-    </row>
-    <row r="35" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G34" s="8"/>
+      <c r="H34" s="9"/>
+      <c r="I34" s="9"/>
+    </row>
+    <row r="35" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="B35" s="15">
+      <c r="B35" s="27" t="s">
+        <v>402</v>
+      </c>
+      <c r="D35" s="15">
         <v>1999</v>
       </c>
-      <c r="C35" s="6" t="s">
+      <c r="E35" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="D35" s="9"/>
-      <c r="E35" s="8"/>
       <c r="F35" s="9"/>
-      <c r="G35" s="9"/>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G35" s="8"/>
+      <c r="H35" s="9"/>
+      <c r="I35" s="9"/>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="B36" s="16" t="s">
+      <c r="B36" s="29" t="s">
+        <v>403</v>
+      </c>
+      <c r="C36" s="29" t="s">
+        <v>404</v>
+      </c>
+      <c r="D36" s="16" t="s">
         <v>69</v>
       </c>
-      <c r="C36" s="9" t="s">
+      <c r="E36" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="F36" s="9"/>
-      <c r="G36" s="9"/>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H36" s="9"/>
+      <c r="I36" s="9"/>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="B37" s="16" t="s">
+      <c r="B37" s="29" t="s">
+        <v>405</v>
+      </c>
+      <c r="C37" s="29" t="s">
+        <v>406</v>
+      </c>
+      <c r="D37" s="16" t="s">
         <v>72</v>
       </c>
-      <c r="C37" s="9" t="s">
+      <c r="E37" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="F37" s="9"/>
-      <c r="G37" s="9"/>
-    </row>
-    <row r="38" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H37" s="9"/>
+      <c r="I37" s="9"/>
+    </row>
+    <row r="38" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="9" t="s">
         <v>74</v>
       </c>
-      <c r="B38" s="16" t="s">
+      <c r="B38" s="29" t="s">
+        <v>407</v>
+      </c>
+      <c r="C38" s="29" t="s">
+        <v>408</v>
+      </c>
+      <c r="D38" s="16" t="s">
         <v>75</v>
       </c>
-      <c r="C38" s="9" t="s">
+      <c r="E38" s="9" t="s">
         <v>76</v>
       </c>
-      <c r="F38" s="9"/>
-      <c r="G38" s="9"/>
-    </row>
-    <row r="39" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H38" s="9"/>
+      <c r="I38" s="9"/>
+    </row>
+    <row r="39" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" s="6" t="s">
         <v>316</v>
       </c>
-      <c r="B39" s="15">
+      <c r="B39" s="27" t="s">
+        <v>409</v>
+      </c>
+      <c r="D39" s="15">
         <v>1972</v>
       </c>
-      <c r="C39" s="6" t="s">
+      <c r="E39" s="6" t="s">
         <v>317</v>
       </c>
-      <c r="D39" s="9"/>
-      <c r="E39" s="9"/>
       <c r="F39" s="9"/>
       <c r="G39" s="9"/>
-    </row>
-    <row r="40" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H39" s="9"/>
+      <c r="I39" s="9"/>
+    </row>
+    <row r="40" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A40" s="4" t="s">
         <v>318</v>
       </c>
-      <c r="B40" s="17"/>
-      <c r="C40" s="4" t="s">
+      <c r="B40" s="26" t="s">
+        <v>410</v>
+      </c>
+      <c r="D40" s="17"/>
+      <c r="E40" s="4" t="s">
         <v>319</v>
       </c>
-      <c r="D40" s="11"/>
-      <c r="E40" s="11"/>
       <c r="F40" s="11"/>
       <c r="G40" s="11"/>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H40" s="11"/>
+      <c r="I40" s="11"/>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A41" s="11" t="s">
         <v>77</v>
       </c>
-      <c r="B41" s="18" t="s">
+      <c r="B41" s="30" t="s">
+        <v>411</v>
+      </c>
+      <c r="C41" s="30" t="s">
+        <v>412</v>
+      </c>
+      <c r="D41" s="18" t="s">
         <v>78</v>
       </c>
-      <c r="C41" s="11" t="s">
+      <c r="E41" s="11" t="s">
         <v>79</v>
       </c>
-      <c r="F41" s="11"/>
-      <c r="G41" s="11"/>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H41" s="11"/>
+      <c r="I41" s="11"/>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="B42" s="18">
+      <c r="B42" s="25" t="s">
+        <v>413</v>
+      </c>
+      <c r="D42" s="18">
         <v>1972</v>
       </c>
-      <c r="C42" s="1" t="s">
+      <c r="E42" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="D42" s="1"/>
-      <c r="E42" s="1"/>
-      <c r="F42" s="11"/>
-      <c r="G42" s="11"/>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F42" s="1"/>
+      <c r="G42" s="1"/>
+      <c r="H42" s="11"/>
+      <c r="I42" s="11"/>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="B43" s="18">
+      <c r="B43" s="25" t="s">
+        <v>413</v>
+      </c>
+      <c r="D43" s="18">
         <v>1972</v>
       </c>
-      <c r="C43" s="1" t="s">
+      <c r="E43" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="D43" s="1"/>
-      <c r="E43" s="1"/>
-      <c r="F43" s="11"/>
-      <c r="G43" s="11"/>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F43" s="1"/>
+      <c r="G43" s="1"/>
+      <c r="H43" s="11"/>
+      <c r="I43" s="11"/>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="B44" s="18">
+      <c r="B44" s="25" t="s">
+        <v>414</v>
+      </c>
+      <c r="D44" s="18">
         <v>1972</v>
       </c>
-      <c r="C44" s="1" t="s">
+      <c r="E44" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="D44" s="1"/>
-      <c r="E44" s="1"/>
-      <c r="F44" s="11"/>
-      <c r="G44" s="11"/>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F44" s="1"/>
+      <c r="G44" s="1"/>
+      <c r="H44" s="11"/>
+      <c r="I44" s="11"/>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="B45" s="18">
+      <c r="B45" s="25" t="s">
+        <v>415</v>
+      </c>
+      <c r="D45" s="18">
         <v>1994</v>
       </c>
-      <c r="C45" s="1" t="s">
+      <c r="E45" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="D45" s="1"/>
-      <c r="E45" s="1"/>
-      <c r="F45" s="11"/>
-      <c r="G45" s="11"/>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F45" s="1"/>
+      <c r="G45" s="1"/>
+      <c r="H45" s="11"/>
+      <c r="I45" s="11"/>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A46" s="11" t="s">
         <v>88</v>
       </c>
-      <c r="B46" s="18" t="s">
+      <c r="B46" s="30" t="s">
+        <v>416</v>
+      </c>
+      <c r="C46" s="30" t="s">
+        <v>417</v>
+      </c>
+      <c r="D46" s="18" t="s">
         <v>89</v>
       </c>
-      <c r="C46" s="11" t="s">
+      <c r="E46" s="11" t="s">
         <v>90</v>
       </c>
-      <c r="F46" s="11"/>
-      <c r="G46" s="11"/>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H46" s="11"/>
+      <c r="I46" s="11"/>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A47" s="11" t="s">
         <v>91</v>
       </c>
-      <c r="B47" s="18" t="s">
+      <c r="B47" s="30" t="s">
+        <v>418</v>
+      </c>
+      <c r="C47" s="30"/>
+      <c r="D47" s="18" t="s">
         <v>92</v>
       </c>
-      <c r="C47" s="11" t="s">
+      <c r="E47" s="11" t="s">
         <v>93</v>
       </c>
-      <c r="F47" s="11"/>
-      <c r="G47" s="11"/>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H47" s="11"/>
+      <c r="I47" s="11"/>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A48" s="9" t="s">
         <v>94</v>
       </c>
-      <c r="B48" s="16" t="s">
+      <c r="B48" s="29" t="s">
+        <v>419</v>
+      </c>
+      <c r="C48" s="29" t="s">
+        <v>420</v>
+      </c>
+      <c r="D48" s="16" t="s">
         <v>69</v>
       </c>
-      <c r="C48" s="9" t="s">
+      <c r="E48" s="9" t="s">
         <v>95</v>
       </c>
-      <c r="F48" s="9"/>
-      <c r="G48" s="9"/>
-    </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H48" s="9"/>
+      <c r="I48" s="9"/>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A49" s="9" t="s">
         <v>96</v>
       </c>
-      <c r="B49" s="16" t="s">
+      <c r="B49" s="29" t="s">
+        <v>421</v>
+      </c>
+      <c r="C49" s="29" t="s">
+        <v>422</v>
+      </c>
+      <c r="D49" s="16" t="s">
         <v>97</v>
       </c>
-      <c r="C49" s="9" t="s">
+      <c r="E49" s="9" t="s">
         <v>98</v>
       </c>
-      <c r="F49" s="9"/>
-      <c r="G49" s="9"/>
-    </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H49" s="9"/>
+      <c r="I49" s="9"/>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A50" s="9" t="s">
         <v>99</v>
       </c>
-      <c r="B50" s="16" t="s">
+      <c r="B50" s="29" t="s">
+        <v>421</v>
+      </c>
+      <c r="C50" s="29" t="s">
+        <v>422</v>
+      </c>
+      <c r="D50" s="16" t="s">
         <v>100</v>
       </c>
-      <c r="C50" s="9" t="s">
+      <c r="E50" s="9" t="s">
         <v>101</v>
       </c>
-      <c r="F50" s="9"/>
-      <c r="G50" s="9"/>
-    </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H50" s="9"/>
+      <c r="I50" s="9"/>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A51" s="8" t="s">
         <v>102</v>
       </c>
-      <c r="B51" s="16">
+      <c r="B51" s="28" t="s">
+        <v>423</v>
+      </c>
+      <c r="D51" s="16">
         <v>1999</v>
       </c>
-      <c r="C51" s="8" t="s">
+      <c r="E51" s="8" t="s">
         <v>103</v>
       </c>
-      <c r="D51" s="8"/>
-      <c r="E51" s="8"/>
-      <c r="F51" s="9"/>
-      <c r="G51" s="9"/>
-    </row>
-    <row r="52" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F51" s="8"/>
+      <c r="G51" s="8"/>
+      <c r="H51" s="9"/>
+      <c r="I51" s="9"/>
+    </row>
+    <row r="52" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A52" s="9" t="s">
         <v>104</v>
       </c>
-      <c r="B52" s="16" t="s">
+      <c r="B52" s="29" t="s">
+        <v>424</v>
+      </c>
+      <c r="C52" s="29" t="s">
+        <v>425</v>
+      </c>
+      <c r="D52" s="16" t="s">
         <v>105</v>
       </c>
-      <c r="C52" s="9" t="s">
+      <c r="E52" s="9" t="s">
         <v>106</v>
       </c>
-      <c r="F52" s="9"/>
-      <c r="G52" s="9"/>
-    </row>
-    <row r="53" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H52" s="9"/>
+      <c r="I52" s="9"/>
+    </row>
+    <row r="53" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A53" s="6" t="s">
         <v>320</v>
       </c>
-      <c r="B53" s="15">
+      <c r="B53" s="27" t="s">
+        <v>426</v>
+      </c>
+      <c r="D53" s="15">
         <v>1982</v>
       </c>
-      <c r="C53" s="6" t="s">
+      <c r="E53" s="6" t="s">
         <v>321</v>
       </c>
-      <c r="D53" s="9"/>
-      <c r="E53" s="8"/>
       <c r="F53" s="9"/>
-      <c r="G53" s="9"/>
-    </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G53" s="8"/>
+      <c r="H53" s="9"/>
+      <c r="I53" s="9"/>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A54" s="8" t="s">
         <v>107</v>
       </c>
-      <c r="B54" s="16">
+      <c r="B54" s="28" t="s">
+        <v>427</v>
+      </c>
+      <c r="D54" s="16">
         <v>1966</v>
       </c>
-      <c r="C54" s="8" t="s">
+      <c r="E54" s="8" t="s">
         <v>108</v>
       </c>
-      <c r="D54" s="8"/>
-      <c r="E54" s="8"/>
-      <c r="F54" s="9"/>
-      <c r="G54" s="9"/>
-    </row>
-    <row r="55" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F54" s="8"/>
+      <c r="G54" s="8"/>
+      <c r="H54" s="9"/>
+      <c r="I54" s="9"/>
+    </row>
+    <row r="55" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A55" s="9" t="s">
         <v>109</v>
       </c>
-      <c r="B55" s="16" t="s">
+      <c r="B55" s="29" t="s">
+        <v>428</v>
+      </c>
+      <c r="C55" s="29" t="s">
+        <v>429</v>
+      </c>
+      <c r="D55" s="16" t="s">
         <v>110</v>
       </c>
-      <c r="C55" s="9" t="s">
+      <c r="E55" s="9" t="s">
         <v>111</v>
       </c>
-      <c r="F55" s="9"/>
-      <c r="G55" s="9"/>
-    </row>
-    <row r="56" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H55" s="9"/>
+      <c r="I55" s="9"/>
+    </row>
+    <row r="56" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A56" s="6" t="s">
         <v>322</v>
       </c>
-      <c r="B56" s="15">
+      <c r="B56" s="27" t="s">
+        <v>430</v>
+      </c>
+      <c r="D56" s="15">
         <v>1972</v>
       </c>
-      <c r="C56" s="6" t="s">
+      <c r="E56" s="6" t="s">
         <v>323</v>
       </c>
-      <c r="D56" s="8"/>
-      <c r="E56" s="8"/>
-      <c r="F56" s="9"/>
-      <c r="G56" s="9"/>
-    </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F56" s="8"/>
+      <c r="G56" s="8"/>
+      <c r="H56" s="9"/>
+      <c r="I56" s="9"/>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A57" s="9" t="s">
         <v>112</v>
       </c>
-      <c r="B57" s="16" t="s">
+      <c r="B57" s="29" t="s">
+        <v>431</v>
+      </c>
+      <c r="C57" s="29" t="s">
+        <v>432</v>
+      </c>
+      <c r="D57" s="16" t="s">
         <v>113</v>
       </c>
-      <c r="C57" s="9" t="s">
+      <c r="E57" s="9" t="s">
         <v>114</v>
       </c>
-      <c r="F57" s="9"/>
-      <c r="G57" s="9"/>
-    </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H57" s="9"/>
+      <c r="I57" s="9"/>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A58" s="9" t="s">
         <v>115</v>
       </c>
-      <c r="B58" s="16" t="s">
+      <c r="B58" s="29" t="s">
+        <v>433</v>
+      </c>
+      <c r="C58" s="29" t="s">
+        <v>434</v>
+      </c>
+      <c r="D58" s="16" t="s">
         <v>116</v>
       </c>
-      <c r="C58" s="9" t="s">
+      <c r="E58" s="9" t="s">
         <v>117</v>
       </c>
-      <c r="F58" s="9"/>
-      <c r="G58" s="9"/>
-    </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H58" s="9"/>
+      <c r="I58" s="9"/>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A59" s="9" t="s">
         <v>118</v>
       </c>
-      <c r="B59" s="16" t="s">
+      <c r="B59" s="29" t="s">
+        <v>435</v>
+      </c>
+      <c r="C59" s="29" t="s">
+        <v>436</v>
+      </c>
+      <c r="D59" s="16" t="s">
         <v>119</v>
       </c>
-      <c r="C59" s="9" t="s">
+      <c r="E59" s="9" t="s">
         <v>120</v>
       </c>
-      <c r="F59" s="9"/>
-      <c r="G59" s="9"/>
-    </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H59" s="9"/>
+      <c r="I59" s="9"/>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A60" s="9" t="s">
         <v>121</v>
       </c>
-      <c r="B60" s="16" t="s">
+      <c r="B60" s="9"/>
+      <c r="C60" s="9"/>
+      <c r="D60" s="16" t="s">
         <v>122</v>
       </c>
-      <c r="C60" s="9" t="s">
+      <c r="E60" s="9" t="s">
         <v>123</v>
       </c>
-      <c r="D60" s="9"/>
-      <c r="E60" s="9"/>
       <c r="F60" s="9"/>
       <c r="G60" s="9"/>
-    </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H60" s="9"/>
+      <c r="I60" s="9"/>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A61" s="9" t="s">
         <v>124</v>
       </c>
-      <c r="B61" s="16" t="s">
+      <c r="B61" s="9"/>
+      <c r="C61" s="9"/>
+      <c r="D61" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="C61" s="9" t="s">
+      <c r="E61" s="9" t="s">
         <v>125</v>
       </c>
-      <c r="D61" s="9"/>
-      <c r="E61" s="9"/>
       <c r="F61" s="9"/>
       <c r="G61" s="9"/>
-    </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H61" s="9"/>
+      <c r="I61" s="9"/>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A62" s="9" t="s">
         <v>126</v>
       </c>
-      <c r="B62" s="16" t="s">
+      <c r="B62" s="9"/>
+      <c r="C62" s="9"/>
+      <c r="D62" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="C62" s="9" t="s">
+      <c r="E62" s="9" t="s">
         <v>127</v>
       </c>
-      <c r="D62" s="9"/>
-      <c r="E62" s="9"/>
       <c r="F62" s="9"/>
       <c r="G62" s="9"/>
-    </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H62" s="9"/>
+      <c r="I62" s="9"/>
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A63" s="9" t="s">
         <v>128</v>
       </c>
-      <c r="B63" s="16" t="s">
+      <c r="B63" s="9"/>
+      <c r="C63" s="9"/>
+      <c r="D63" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="C63" s="9" t="s">
+      <c r="E63" s="9" t="s">
         <v>129</v>
       </c>
-      <c r="D63" s="9"/>
-      <c r="E63" s="9"/>
       <c r="F63" s="9"/>
       <c r="G63" s="9"/>
-    </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H63" s="9"/>
+      <c r="I63" s="9"/>
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A64" s="9" t="s">
         <v>130</v>
       </c>
-      <c r="B64" s="16" t="s">
+      <c r="B64" s="9"/>
+      <c r="C64" s="9"/>
+      <c r="D64" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="C64" s="9" t="s">
+      <c r="E64" s="9" t="s">
         <v>131</v>
       </c>
-      <c r="D64" s="9"/>
-      <c r="E64" s="9"/>
       <c r="F64" s="9"/>
       <c r="G64" s="9"/>
-    </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H64" s="9"/>
+      <c r="I64" s="9"/>
+    </row>
+    <row r="65" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A65" s="9" t="s">
         <v>132</v>
       </c>
-      <c r="B65" s="16" t="s">
+      <c r="B65" s="9"/>
+      <c r="C65" s="9"/>
+      <c r="D65" s="16" t="s">
         <v>133</v>
       </c>
-      <c r="C65" s="9" t="s">
+      <c r="E65" s="9" t="s">
         <v>134</v>
       </c>
-      <c r="D65" s="9"/>
-      <c r="E65" s="8"/>
       <c r="F65" s="9"/>
-      <c r="G65" s="9"/>
-    </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G65" s="8"/>
+      <c r="H65" s="9"/>
+      <c r="I65" s="9"/>
+    </row>
+    <row r="66" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A66" s="9" t="s">
         <v>135</v>
       </c>
-      <c r="B66" s="16" t="s">
+      <c r="B66" s="9"/>
+      <c r="C66" s="9"/>
+      <c r="D66" s="16" t="s">
         <v>136</v>
       </c>
-      <c r="C66" s="9" t="s">
+      <c r="E66" s="9" t="s">
         <v>137</v>
       </c>
-      <c r="D66" s="9"/>
-      <c r="E66" s="8"/>
       <c r="F66" s="9"/>
-      <c r="G66" s="9"/>
-    </row>
-    <row r="67" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G66" s="8"/>
+      <c r="H66" s="9"/>
+      <c r="I66" s="9"/>
+    </row>
+    <row r="67" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A67" s="9" t="s">
         <v>138</v>
       </c>
-      <c r="B67" s="16" t="s">
+      <c r="B67" s="9"/>
+      <c r="C67" s="9"/>
+      <c r="D67" s="16" t="s">
         <v>139</v>
       </c>
-      <c r="C67" s="9" t="s">
+      <c r="E67" s="9" t="s">
         <v>140</v>
       </c>
-      <c r="D67" s="9"/>
-      <c r="E67" s="9"/>
       <c r="F67" s="9"/>
       <c r="G67" s="9"/>
-    </row>
-    <row r="68" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H67" s="9"/>
+      <c r="I67" s="9"/>
+    </row>
+    <row r="68" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A68" s="6" t="s">
         <v>142</v>
       </c>
-      <c r="B68" s="15">
+      <c r="B68" s="31" t="s">
+        <v>437</v>
+      </c>
+      <c r="D68" s="15">
         <v>2005</v>
       </c>
-      <c r="C68" s="6" t="s">
+      <c r="E68" s="6" t="s">
         <v>141</v>
       </c>
-      <c r="D68" s="9"/>
-      <c r="E68" s="9"/>
       <c r="F68" s="9"/>
-    </row>
-    <row r="69" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G68" s="9"/>
+      <c r="H68" s="9"/>
+    </row>
+    <row r="69" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A69" s="6" t="s">
         <v>143</v>
       </c>
-      <c r="B69" s="15" t="s">
+      <c r="B69" s="31" t="s">
+        <v>438</v>
+      </c>
+      <c r="D69" s="15" t="s">
         <v>144</v>
       </c>
-      <c r="C69" s="6" t="s">
+      <c r="E69" s="6" t="s">
         <v>145</v>
       </c>
-      <c r="D69" s="7"/>
-    </row>
-    <row r="70" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F69" s="7"/>
+    </row>
+    <row r="70" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A70" s="6" t="s">
         <v>324</v>
       </c>
-      <c r="B70" s="15">
+      <c r="B70" s="31" t="s">
+        <v>439</v>
+      </c>
+      <c r="D70" s="15">
         <v>1996</v>
       </c>
-      <c r="C70" s="6" t="s">
+      <c r="E70" s="6" t="s">
         <v>146</v>
       </c>
-      <c r="D70" s="9"/>
-      <c r="E70" s="9"/>
       <c r="F70" s="9"/>
-    </row>
-    <row r="71" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G70" s="9"/>
+      <c r="H70" s="9"/>
+    </row>
+    <row r="71" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A71" s="6" t="s">
         <v>147</v>
       </c>
-      <c r="B71" s="15">
+      <c r="B71" s="31" t="s">
+        <v>440</v>
+      </c>
+      <c r="D71" s="15">
         <v>1998</v>
       </c>
-      <c r="C71" s="6" t="s">
+      <c r="E71" s="6" t="s">
         <v>148</v>
       </c>
-      <c r="D71" s="9"/>
-      <c r="E71" s="9"/>
       <c r="F71" s="9"/>
-    </row>
-    <row r="72" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G71" s="9"/>
+      <c r="H71" s="9"/>
+    </row>
+    <row r="72" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A72" s="9" t="s">
         <v>149</v>
       </c>
-      <c r="B72" s="16">
+      <c r="B72" s="33" t="s">
+        <v>441</v>
+      </c>
+      <c r="C72" s="33" t="s">
+        <v>442</v>
+      </c>
+      <c r="D72" s="16">
         <v>2005</v>
       </c>
-      <c r="C72" s="5" t="s">
+      <c r="E72" s="5" t="s">
         <v>150</v>
       </c>
-      <c r="D72" s="10"/>
-      <c r="E72" s="10"/>
-      <c r="H72" s="11"/>
-    </row>
-    <row r="73" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F72" s="10"/>
+      <c r="G72" s="10"/>
+      <c r="J72" s="11"/>
+    </row>
+    <row r="73" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A73" s="6" t="s">
         <v>325</v>
       </c>
-      <c r="B73" s="15">
+      <c r="B73" s="31" t="s">
+        <v>443</v>
+      </c>
+      <c r="D73" s="15">
         <v>1946</v>
       </c>
-      <c r="C73" s="6" t="s">
+      <c r="E73" s="6" t="s">
         <v>326</v>
       </c>
-      <c r="D73" s="9"/>
-      <c r="E73" s="9"/>
       <c r="F73" s="9"/>
-      <c r="G73" s="3"/>
-    </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G73" s="9"/>
+      <c r="H73" s="9"/>
+      <c r="I73" s="3"/>
+    </row>
+    <row r="74" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A74" s="9" t="s">
         <v>151</v>
       </c>
-      <c r="B74" s="16" t="s">
+      <c r="B74" s="33" t="s">
+        <v>444</v>
+      </c>
+      <c r="C74" s="33" t="s">
+        <v>445</v>
+      </c>
+      <c r="D74" s="16" t="s">
         <v>50</v>
       </c>
-      <c r="C74" s="9" t="s">
+      <c r="E74" s="9" t="s">
         <v>152</v>
       </c>
-      <c r="F74" s="9"/>
-      <c r="G74" s="3"/>
-    </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H74" s="9"/>
+      <c r="I74" s="3"/>
+    </row>
+    <row r="75" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A75" s="9" t="s">
         <v>153</v>
       </c>
-      <c r="B75" s="16" t="s">
+      <c r="B75" s="33" t="s">
+        <v>446</v>
+      </c>
+      <c r="C75" s="33" t="s">
+        <v>447</v>
+      </c>
+      <c r="D75" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="C75" s="9" t="s">
+      <c r="E75" s="9" t="s">
         <v>154</v>
       </c>
-      <c r="F75" s="9"/>
-      <c r="G75" s="3"/>
-    </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H75" s="9"/>
+      <c r="I75" s="3"/>
+    </row>
+    <row r="76" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A76" s="9" t="s">
         <v>155</v>
       </c>
-      <c r="B76" s="16" t="s">
+      <c r="B76" s="33" t="s">
+        <v>448</v>
+      </c>
+      <c r="C76" s="33" t="s">
+        <v>449</v>
+      </c>
+      <c r="D76" s="16" t="s">
         <v>156</v>
       </c>
-      <c r="C76" s="9" t="s">
+      <c r="E76" s="9" t="s">
         <v>157</v>
       </c>
-      <c r="F76" s="9"/>
-      <c r="G76" s="3"/>
-    </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H76" s="9"/>
+      <c r="I76" s="3"/>
+    </row>
+    <row r="77" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A77" s="9" t="s">
         <v>347</v>
       </c>
-      <c r="B77" s="16" t="s">
+      <c r="B77" s="33" t="s">
+        <v>450</v>
+      </c>
+      <c r="C77" s="33" t="s">
+        <v>451</v>
+      </c>
+      <c r="D77" s="16" t="s">
         <v>348</v>
       </c>
-      <c r="C77" s="9" t="s">
+      <c r="E77" s="9" t="s">
         <v>349</v>
       </c>
-      <c r="F77" s="9"/>
-      <c r="G77" s="3"/>
-    </row>
-    <row r="78" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H77" s="9"/>
+      <c r="I77" s="3"/>
+    </row>
+    <row r="78" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A78" s="9" t="s">
         <v>158</v>
       </c>
-      <c r="B78" s="16" t="s">
+      <c r="B78" s="33" t="s">
+        <v>452</v>
+      </c>
+      <c r="C78" s="33" t="s">
+        <v>453</v>
+      </c>
+      <c r="D78" s="16" t="s">
         <v>159</v>
       </c>
-      <c r="C78" s="9" t="s">
+      <c r="E78" s="9" t="s">
         <v>160</v>
       </c>
-      <c r="F78" s="9"/>
-      <c r="G78" s="3"/>
-    </row>
-    <row r="79" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H78" s="9"/>
+      <c r="I78" s="3"/>
+    </row>
+    <row r="79" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A79" s="6" t="s">
         <v>327</v>
       </c>
-      <c r="B79" s="15">
+      <c r="B79" s="31" t="s">
+        <v>454</v>
+      </c>
+      <c r="D79" s="15">
         <v>1970</v>
       </c>
-      <c r="C79" s="6" t="s">
+      <c r="E79" s="6" t="s">
         <v>328</v>
       </c>
-      <c r="D79" s="9"/>
-      <c r="E79" s="9"/>
       <c r="F79" s="9"/>
-      <c r="G79" s="3"/>
-    </row>
-    <row r="80" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G79" s="9"/>
+      <c r="H79" s="9"/>
+      <c r="I79" s="3"/>
+    </row>
+    <row r="80" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A80" s="9" t="s">
         <v>161</v>
       </c>
-      <c r="B80" s="16" t="s">
+      <c r="B80" s="33" t="s">
+        <v>455</v>
+      </c>
+      <c r="C80" s="33" t="s">
+        <v>404</v>
+      </c>
+      <c r="D80" s="16" t="s">
         <v>162</v>
       </c>
-      <c r="C80" s="9" t="s">
+      <c r="E80" s="9" t="s">
         <v>163</v>
       </c>
-      <c r="F80" s="9"/>
-      <c r="G80" s="3"/>
-    </row>
-    <row r="81" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H80" s="9"/>
+      <c r="I80" s="3"/>
+    </row>
+    <row r="81" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A81" s="6" t="s">
         <v>329</v>
       </c>
-      <c r="B81" s="15">
+      <c r="B81" s="31" t="s">
+        <v>426</v>
+      </c>
+      <c r="D81" s="15">
         <v>1980</v>
       </c>
-      <c r="C81" s="6" t="s">
+      <c r="E81" s="6" t="s">
         <v>330</v>
       </c>
-      <c r="D81" s="9"/>
-      <c r="E81" s="9"/>
       <c r="F81" s="9"/>
-      <c r="G81" s="3"/>
-    </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G81" s="9"/>
+      <c r="H81" s="9"/>
+      <c r="I81" s="3"/>
+    </row>
+    <row r="82" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A82" s="8" t="s">
         <v>164</v>
       </c>
-      <c r="B82" s="16">
+      <c r="B82" s="32" t="s">
+        <v>456</v>
+      </c>
+      <c r="D82" s="16">
         <v>1961</v>
       </c>
-      <c r="C82" s="8" t="s">
+      <c r="E82" s="8" t="s">
         <v>165</v>
       </c>
-      <c r="D82" s="8"/>
-      <c r="E82" s="9"/>
-      <c r="F82" s="9"/>
-      <c r="G82" s="3"/>
-    </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F82" s="8"/>
+      <c r="G82" s="9"/>
+      <c r="H82" s="9"/>
+      <c r="I82" s="3"/>
+    </row>
+    <row r="83" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A83" s="9" t="s">
         <v>166</v>
       </c>
-      <c r="B83" s="16" t="s">
+      <c r="B83" s="33" t="s">
+        <v>457</v>
+      </c>
+      <c r="C83" s="33" t="s">
+        <v>458</v>
+      </c>
+      <c r="D83" s="16" t="s">
         <v>133</v>
       </c>
-      <c r="C83" s="9" t="s">
+      <c r="E83" s="9" t="s">
         <v>167</v>
       </c>
-      <c r="F83" s="9"/>
-      <c r="G83" s="3"/>
-    </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H83" s="9"/>
+      <c r="I83" s="3"/>
+    </row>
+    <row r="84" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A84" s="9" t="s">
         <v>168</v>
       </c>
-      <c r="B84" s="16" t="s">
+      <c r="B84" s="33" t="s">
+        <v>459</v>
+      </c>
+      <c r="C84" s="33" t="s">
+        <v>460</v>
+      </c>
+      <c r="D84" s="16" t="s">
         <v>169</v>
       </c>
-      <c r="C84" s="9" t="s">
+      <c r="E84" s="9" t="s">
         <v>170</v>
       </c>
-      <c r="F84" s="9"/>
-      <c r="G84" s="3"/>
-    </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H84" s="9"/>
+      <c r="I84" s="3"/>
+    </row>
+    <row r="85" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A85" s="9" t="s">
         <v>171</v>
       </c>
-      <c r="B85" s="16" t="s">
+      <c r="B85" s="33" t="s">
+        <v>461</v>
+      </c>
+      <c r="C85" s="33" t="s">
+        <v>462</v>
+      </c>
+      <c r="D85" s="16" t="s">
         <v>172</v>
       </c>
-      <c r="C85" s="9" t="s">
+      <c r="E85" s="9" t="s">
         <v>173</v>
       </c>
-      <c r="F85" s="9"/>
-      <c r="G85" s="3"/>
-    </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H85" s="9"/>
+      <c r="I85" s="3"/>
+    </row>
+    <row r="86" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A86" s="9" t="s">
         <v>174</v>
       </c>
-      <c r="B86" s="16" t="s">
+      <c r="B86" s="33" t="s">
+        <v>463</v>
+      </c>
+      <c r="C86" s="33" t="s">
+        <v>464</v>
+      </c>
+      <c r="D86" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="C86" s="9" t="s">
+      <c r="E86" s="9" t="s">
         <v>175</v>
       </c>
-      <c r="F86" s="9"/>
-      <c r="G86" s="3"/>
-    </row>
-    <row r="87" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H86" s="9"/>
+      <c r="I86" s="3"/>
+    </row>
+    <row r="87" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A87" s="9" t="s">
         <v>176</v>
       </c>
-      <c r="B87" s="16" t="s">
+      <c r="B87" s="33" t="s">
+        <v>465</v>
+      </c>
+      <c r="C87" s="33" t="s">
+        <v>466</v>
+      </c>
+      <c r="D87" s="16" t="s">
         <v>78</v>
       </c>
-      <c r="C87" s="9" t="s">
+      <c r="E87" s="9" t="s">
         <v>177</v>
       </c>
-      <c r="F87" s="9"/>
-      <c r="G87" s="3"/>
-    </row>
-    <row r="88" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H87" s="9"/>
+      <c r="I87" s="3"/>
+    </row>
+    <row r="88" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A88" s="6" t="s">
         <v>178</v>
       </c>
-      <c r="B88" s="15">
+      <c r="B88" s="31" t="s">
+        <v>467</v>
+      </c>
+      <c r="D88" s="15">
         <v>1968</v>
       </c>
-      <c r="C88" s="6" t="s">
+      <c r="E88" s="6" t="s">
         <v>179</v>
       </c>
-      <c r="D88" s="9"/>
-      <c r="E88" s="9"/>
       <c r="F88" s="9"/>
-    </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G88" s="9"/>
+      <c r="H88" s="9"/>
+    </row>
+    <row r="89" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A89" s="9" t="s">
         <v>350</v>
       </c>
-      <c r="B89" s="16" t="s">
+      <c r="B89" s="33" t="s">
+        <v>468</v>
+      </c>
+      <c r="C89" s="33" t="s">
+        <v>469</v>
+      </c>
+      <c r="D89" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="C89" s="9" t="s">
+      <c r="E89" s="9" t="s">
         <v>351</v>
       </c>
-      <c r="F89" s="9"/>
-    </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H89" s="9"/>
+    </row>
+    <row r="90" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A90" s="9" t="s">
         <v>180</v>
       </c>
-      <c r="B90" s="16" t="s">
+      <c r="B90" s="33" t="s">
+        <v>470</v>
+      </c>
+      <c r="C90" s="33" t="s">
+        <v>471</v>
+      </c>
+      <c r="D90" s="16" t="s">
         <v>181</v>
       </c>
-      <c r="C90" s="9" t="s">
+      <c r="E90" s="9" t="s">
         <v>182</v>
       </c>
-      <c r="F90" s="9"/>
-    </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H90" s="9"/>
+    </row>
+    <row r="91" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A91" s="9" t="s">
         <v>183</v>
       </c>
-      <c r="B91" s="16">
+      <c r="B91" s="33" t="s">
+        <v>472</v>
+      </c>
+      <c r="C91" s="33" t="s">
+        <v>473</v>
+      </c>
+      <c r="D91" s="16">
         <v>1954</v>
       </c>
-      <c r="C91" s="5" t="s">
+      <c r="E91" s="5" t="s">
         <v>184</v>
       </c>
-      <c r="D91" s="10"/>
-      <c r="E91" s="10"/>
-      <c r="F91" s="11"/>
-      <c r="G91" s="11"/>
+      <c r="F91" s="10"/>
+      <c r="G91" s="10"/>
       <c r="H91" s="11"/>
-    </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I91" s="11"/>
+      <c r="J91" s="11"/>
+    </row>
+    <row r="92" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A92" s="8" t="s">
         <v>185</v>
       </c>
-      <c r="B92" s="16">
+      <c r="B92" s="32" t="s">
+        <v>365</v>
+      </c>
+      <c r="D92" s="16">
         <v>1970</v>
       </c>
-      <c r="C92" s="8" t="s">
+      <c r="E92" s="8" t="s">
         <v>186</v>
       </c>
-      <c r="D92" s="8"/>
-      <c r="E92" s="8"/>
-      <c r="F92" s="9"/>
-    </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F92" s="8"/>
+      <c r="G92" s="8"/>
+      <c r="H92" s="9"/>
+    </row>
+    <row r="93" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A93" s="8" t="s">
         <v>187</v>
       </c>
-      <c r="B93" s="16">
+      <c r="B93" s="32" t="s">
+        <v>474</v>
+      </c>
+      <c r="D93" s="16">
         <v>1985</v>
       </c>
-      <c r="C93" s="8" t="s">
+      <c r="E93" s="8" t="s">
         <v>188</v>
       </c>
-      <c r="D93" s="8"/>
-      <c r="E93" s="8"/>
-      <c r="F93" s="9"/>
-    </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F93" s="8"/>
+      <c r="G93" s="8"/>
+      <c r="H93" s="9"/>
+    </row>
+    <row r="94" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A94" s="8" t="s">
         <v>189</v>
       </c>
-      <c r="B94" s="16">
+      <c r="B94" s="32" t="s">
+        <v>475</v>
+      </c>
+      <c r="D94" s="16">
         <v>2002</v>
       </c>
-      <c r="C94" s="8" t="s">
+      <c r="E94" s="8" t="s">
         <v>190</v>
       </c>
-      <c r="D94" s="8"/>
-      <c r="E94" s="8"/>
-      <c r="F94" s="9"/>
-    </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F94" s="8"/>
+      <c r="G94" s="8"/>
+      <c r="H94" s="9"/>
+    </row>
+    <row r="95" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A95" s="8" t="s">
         <v>191</v>
       </c>
-      <c r="B95" s="16">
+      <c r="B95" s="32" t="s">
+        <v>475</v>
+      </c>
+      <c r="D95" s="16">
         <v>2002</v>
       </c>
-      <c r="C95" s="8" t="s">
+      <c r="E95" s="8" t="s">
         <v>192</v>
       </c>
-      <c r="D95" s="8"/>
-      <c r="E95" s="8"/>
-      <c r="F95" s="9"/>
-    </row>
-    <row r="96" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F95" s="8"/>
+      <c r="G95" s="8"/>
+      <c r="H95" s="9"/>
+    </row>
+    <row r="96" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A96" s="8" t="s">
         <v>193</v>
       </c>
-      <c r="B96" s="16">
+      <c r="B96" s="32" t="s">
+        <v>476</v>
+      </c>
+      <c r="D96" s="16">
         <v>1999</v>
       </c>
-      <c r="C96" s="8" t="s">
+      <c r="E96" s="8" t="s">
         <v>194</v>
       </c>
-      <c r="D96" s="8"/>
-      <c r="E96" s="8"/>
-      <c r="F96" s="9"/>
-    </row>
-    <row r="97" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F96" s="8"/>
+      <c r="G96" s="8"/>
+      <c r="H96" s="9"/>
+    </row>
+    <row r="97" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A97" s="6" t="s">
         <v>195</v>
       </c>
-      <c r="B97" s="15">
+      <c r="B97" s="31" t="s">
+        <v>477</v>
+      </c>
+      <c r="D97" s="15">
         <v>1985</v>
       </c>
-      <c r="C97" s="6" t="s">
+      <c r="E97" s="6" t="s">
         <v>196</v>
       </c>
-      <c r="D97" s="9"/>
-      <c r="E97" s="9"/>
       <c r="F97" s="9"/>
-    </row>
-    <row r="98" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G97" s="9"/>
+      <c r="H97" s="9"/>
+    </row>
+    <row r="98" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A98" s="6" t="s">
         <v>197</v>
       </c>
-      <c r="B98" s="15">
+      <c r="B98" s="31" t="s">
+        <v>477</v>
+      </c>
+      <c r="D98" s="15">
         <v>1985</v>
       </c>
-      <c r="C98" s="6" t="s">
+      <c r="E98" s="6" t="s">
         <v>198</v>
       </c>
-      <c r="D98" s="9"/>
-      <c r="E98" s="9"/>
       <c r="F98" s="9"/>
-    </row>
-    <row r="99" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G98" s="9"/>
+      <c r="H98" s="9"/>
+    </row>
+    <row r="99" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A99" s="6" t="s">
         <v>199</v>
       </c>
-      <c r="B99" s="15">
+      <c r="B99" s="31" t="s">
+        <v>477</v>
+      </c>
+      <c r="D99" s="15">
         <v>1962</v>
       </c>
-      <c r="C99" s="6" t="s">
+      <c r="E99" s="6" t="s">
         <v>200</v>
       </c>
-      <c r="D99" s="9"/>
-      <c r="E99" s="9"/>
       <c r="F99" s="9"/>
-    </row>
-    <row r="100" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G99" s="9"/>
+      <c r="H99" s="9"/>
+    </row>
+    <row r="100" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A100" s="14" t="s">
         <v>201</v>
       </c>
-      <c r="B100" s="16">
+      <c r="B100" s="31" t="s">
+        <v>477</v>
+      </c>
+      <c r="D100" s="16">
         <v>1995</v>
       </c>
-      <c r="C100" s="9" t="s">
+      <c r="E100" s="9" t="s">
         <v>202</v>
       </c>
-      <c r="D100" s="10"/>
-      <c r="E100" s="10"/>
-      <c r="H100" s="9"/>
-    </row>
-    <row r="101" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F100" s="10"/>
+      <c r="G100" s="10"/>
+      <c r="J100" s="9"/>
+    </row>
+    <row r="101" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A101" s="6" t="s">
         <v>206</v>
       </c>
-      <c r="B101" s="15">
+      <c r="B101" s="31" t="s">
+        <v>477</v>
+      </c>
+      <c r="D101" s="15">
         <v>1950</v>
       </c>
-      <c r="C101" s="6" t="s">
+      <c r="E101" s="6" t="s">
         <v>207</v>
       </c>
-      <c r="D101" s="9"/>
-      <c r="E101" s="9"/>
       <c r="F101" s="9"/>
       <c r="G101" s="9"/>
       <c r="H101" s="9"/>
-    </row>
-    <row r="102" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I101" s="9"/>
+      <c r="J101" s="9"/>
+    </row>
+    <row r="102" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A102" s="6" t="s">
         <v>208</v>
       </c>
-      <c r="B102" s="15">
+      <c r="B102" s="31" t="s">
+        <v>477</v>
+      </c>
+      <c r="D102" s="15">
         <v>1957</v>
       </c>
-      <c r="C102" s="6" t="s">
+      <c r="E102" s="6" t="s">
         <v>209</v>
       </c>
-      <c r="D102" s="9"/>
-      <c r="E102" s="9"/>
       <c r="F102" s="9"/>
       <c r="G102" s="9"/>
       <c r="H102" s="9"/>
-    </row>
-    <row r="103" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I102" s="9"/>
+      <c r="J102" s="9"/>
+    </row>
+    <row r="103" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A103" s="14" t="s">
         <v>210</v>
       </c>
-      <c r="B103" s="15" t="s">
+      <c r="B103" s="31" t="s">
+        <v>477</v>
+      </c>
+      <c r="D103" s="15" t="s">
         <v>211</v>
       </c>
-      <c r="C103" s="14" t="s">
+      <c r="E103" s="14" t="s">
         <v>212</v>
       </c>
-      <c r="F103" s="9"/>
-      <c r="G103" s="9"/>
       <c r="H103" s="9"/>
-    </row>
-    <row r="104" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I103" s="9"/>
+      <c r="J103" s="9"/>
+    </row>
+    <row r="104" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A104" s="6" t="s">
         <v>213</v>
       </c>
-      <c r="B104" s="15">
+      <c r="B104" s="31" t="s">
+        <v>477</v>
+      </c>
+      <c r="D104" s="15">
         <v>1969</v>
       </c>
-      <c r="C104" s="6" t="s">
+      <c r="E104" s="6" t="s">
         <v>214</v>
       </c>
-      <c r="D104" s="8"/>
-      <c r="E104" s="8"/>
-      <c r="F104" s="9"/>
-      <c r="G104" s="9"/>
+      <c r="F104" s="8"/>
+      <c r="G104" s="8"/>
       <c r="H104" s="9"/>
-    </row>
-    <row r="105" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I104" s="9"/>
+      <c r="J104" s="9"/>
+    </row>
+    <row r="105" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A105" s="6" t="s">
         <v>215</v>
       </c>
-      <c r="B105" s="15">
+      <c r="B105" s="31" t="s">
+        <v>477</v>
+      </c>
+      <c r="D105" s="15">
         <v>1969</v>
       </c>
-      <c r="C105" s="6" t="s">
+      <c r="E105" s="6" t="s">
         <v>216</v>
       </c>
-      <c r="D105" s="8"/>
-      <c r="E105" s="8"/>
-      <c r="F105" s="9"/>
-      <c r="G105" s="9"/>
+      <c r="F105" s="8"/>
+      <c r="G105" s="8"/>
       <c r="H105" s="9"/>
-    </row>
-    <row r="106" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I105" s="9"/>
+      <c r="J105" s="9"/>
+    </row>
+    <row r="106" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A106" s="6" t="s">
         <v>217</v>
       </c>
-      <c r="B106" s="15">
+      <c r="B106" s="31" t="s">
+        <v>478</v>
+      </c>
+      <c r="D106" s="15">
         <v>1969</v>
       </c>
-      <c r="C106" s="6" t="s">
+      <c r="E106" s="6" t="s">
         <v>218</v>
       </c>
-      <c r="D106" s="8"/>
-      <c r="E106" s="8"/>
-      <c r="F106" s="9"/>
-      <c r="G106" s="9"/>
+      <c r="F106" s="8"/>
+      <c r="G106" s="8"/>
       <c r="H106" s="9"/>
-    </row>
-    <row r="107" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I106" s="9"/>
+      <c r="J106" s="9"/>
+    </row>
+    <row r="107" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A107" s="13" t="s">
         <v>219</v>
       </c>
-      <c r="B107" s="19">
+      <c r="B107" s="33" t="s">
+        <v>479</v>
+      </c>
+      <c r="C107" s="33" t="s">
+        <v>480</v>
+      </c>
+      <c r="D107" s="19">
         <v>1970</v>
       </c>
-      <c r="C107" s="13" t="s">
+      <c r="E107" s="13" t="s">
         <v>220</v>
       </c>
-      <c r="D107" s="9"/>
-      <c r="E107" s="9"/>
       <c r="F107" s="9"/>
       <c r="G107" s="9"/>
       <c r="H107" s="9"/>
-    </row>
-    <row r="108" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I107" s="9"/>
+      <c r="J107" s="9"/>
+    </row>
+    <row r="108" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A108" s="6" t="s">
         <v>221</v>
       </c>
-      <c r="B108" s="15">
+      <c r="B108" s="31" t="s">
+        <v>481</v>
+      </c>
+      <c r="D108" s="15">
         <v>1975</v>
       </c>
-      <c r="C108" s="6" t="s">
+      <c r="E108" s="6" t="s">
         <v>222</v>
       </c>
-      <c r="D108" s="8"/>
-      <c r="E108" s="8"/>
-      <c r="F108" s="9"/>
-      <c r="G108" s="9"/>
+      <c r="F108" s="8"/>
+      <c r="G108" s="8"/>
       <c r="H108" s="9"/>
-    </row>
-    <row r="109" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I108" s="9"/>
+      <c r="J108" s="9"/>
+    </row>
+    <row r="109" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A109" s="6" t="s">
         <v>223</v>
       </c>
-      <c r="B109" s="15">
+      <c r="B109" s="31" t="s">
+        <v>482</v>
+      </c>
+      <c r="D109" s="15">
         <v>1975</v>
       </c>
-      <c r="C109" s="6" t="s">
+      <c r="E109" s="6" t="s">
         <v>224</v>
       </c>
-      <c r="D109" s="8"/>
-      <c r="E109" s="8"/>
-      <c r="F109" s="9"/>
-      <c r="G109" s="9"/>
+      <c r="F109" s="8"/>
+      <c r="G109" s="8"/>
       <c r="H109" s="9"/>
-    </row>
-    <row r="110" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I109" s="9"/>
+      <c r="J109" s="9"/>
+    </row>
+    <row r="110" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A110" s="8" t="s">
         <v>225</v>
       </c>
-      <c r="B110" s="16">
+      <c r="B110" s="33" t="s">
+        <v>483</v>
+      </c>
+      <c r="C110" s="33" t="s">
+        <v>484</v>
+      </c>
+      <c r="D110" s="16">
         <v>1997</v>
       </c>
-      <c r="C110" s="8" t="s">
+      <c r="E110" s="8" t="s">
         <v>226</v>
       </c>
-      <c r="D110" s="8"/>
-      <c r="E110" s="8"/>
-      <c r="F110" s="9"/>
-      <c r="G110" s="9"/>
+      <c r="F110" s="8"/>
+      <c r="G110" s="8"/>
       <c r="H110" s="9"/>
-    </row>
-    <row r="111" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I110" s="9"/>
+      <c r="J110" s="9"/>
+    </row>
+    <row r="111" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A111" s="6" t="s">
         <v>227</v>
       </c>
-      <c r="B111" s="15">
+      <c r="B111" s="31" t="s">
+        <v>485</v>
+      </c>
+      <c r="D111" s="15">
         <v>1998</v>
       </c>
-      <c r="C111" s="6" t="s">
+      <c r="E111" s="6" t="s">
         <v>228</v>
       </c>
-      <c r="D111" s="8"/>
-      <c r="E111" s="8"/>
-      <c r="F111" s="9"/>
-      <c r="G111" s="9"/>
+      <c r="F111" s="8"/>
+      <c r="G111" s="8"/>
       <c r="H111" s="9"/>
-    </row>
-    <row r="112" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I111" s="9"/>
+      <c r="J111" s="9"/>
+    </row>
+    <row r="112" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A112" s="8" t="s">
         <v>229</v>
       </c>
-      <c r="B112" s="16">
+      <c r="B112" s="32" t="s">
+        <v>486</v>
+      </c>
+      <c r="D112" s="16">
         <v>1974</v>
       </c>
-      <c r="C112" s="8" t="s">
+      <c r="E112" s="8" t="s">
         <v>230</v>
       </c>
-      <c r="D112" s="8"/>
-      <c r="E112" s="8"/>
-      <c r="F112" s="9"/>
-      <c r="G112" s="9"/>
+      <c r="F112" s="8"/>
+      <c r="G112" s="8"/>
       <c r="H112" s="9"/>
-    </row>
-    <row r="113" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I112" s="9"/>
+      <c r="J112" s="9"/>
+    </row>
+    <row r="113" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A113" s="8" t="s">
         <v>231</v>
       </c>
-      <c r="B113" s="16">
+      <c r="B113" s="32" t="s">
+        <v>486</v>
+      </c>
+      <c r="D113" s="16">
         <v>1955</v>
       </c>
-      <c r="C113" s="8" t="s">
+      <c r="E113" s="8" t="s">
         <v>232</v>
       </c>
-      <c r="D113" s="8"/>
-      <c r="E113" s="8"/>
-      <c r="F113" s="9"/>
-      <c r="G113" s="9"/>
+      <c r="F113" s="8"/>
+      <c r="G113" s="8"/>
       <c r="H113" s="9"/>
-    </row>
-    <row r="114" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I113" s="9"/>
+      <c r="J113" s="9"/>
+    </row>
+    <row r="114" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A114" s="9" t="s">
         <v>233</v>
       </c>
-      <c r="B114" s="16" t="s">
+      <c r="B114" s="32" t="s">
+        <v>486</v>
+      </c>
+      <c r="D114" s="16" t="s">
         <v>234</v>
       </c>
-      <c r="C114" s="9" t="s">
+      <c r="E114" s="9" t="s">
         <v>235</v>
       </c>
-      <c r="F114" s="9"/>
-      <c r="G114" s="9"/>
       <c r="H114" s="9"/>
-    </row>
-    <row r="115" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I114" s="9"/>
+      <c r="J114" s="9"/>
+    </row>
+    <row r="115" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A115" s="13" t="s">
         <v>236</v>
       </c>
-      <c r="B115" s="19">
+      <c r="B115" s="32" t="s">
+        <v>486</v>
+      </c>
+      <c r="D115" s="19">
         <v>1987</v>
       </c>
-      <c r="C115" s="13" t="s">
+      <c r="E115" s="13" t="s">
         <v>237</v>
       </c>
-      <c r="D115" s="9"/>
-      <c r="E115" s="9"/>
       <c r="F115" s="9"/>
       <c r="G115" s="9"/>
       <c r="H115" s="9"/>
-    </row>
-    <row r="116" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I115" s="9"/>
+      <c r="J115" s="9"/>
+    </row>
+    <row r="116" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A116" s="8" t="s">
         <v>238</v>
       </c>
-      <c r="B116" s="16">
+      <c r="B116" s="32" t="s">
+        <v>486</v>
+      </c>
+      <c r="D116" s="16">
         <v>2000</v>
       </c>
-      <c r="C116" s="8" t="s">
+      <c r="E116" s="8" t="s">
         <v>239</v>
       </c>
-      <c r="D116" s="8"/>
-      <c r="E116" s="8"/>
-      <c r="F116" s="9"/>
-      <c r="G116" s="9"/>
+      <c r="F116" s="8"/>
+      <c r="G116" s="8"/>
       <c r="H116" s="9"/>
-    </row>
-    <row r="117" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I116" s="9"/>
+      <c r="J116" s="9"/>
+    </row>
+    <row r="117" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A117" s="8" t="s">
         <v>240</v>
       </c>
-      <c r="B117" s="16">
+      <c r="B117" s="32" t="s">
+        <v>487</v>
+      </c>
+      <c r="D117" s="16">
         <v>2000</v>
       </c>
-      <c r="C117" s="8" t="s">
+      <c r="E117" s="8" t="s">
         <v>241</v>
       </c>
-      <c r="D117" s="8"/>
-      <c r="E117" s="8"/>
-      <c r="F117" s="9"/>
-      <c r="G117" s="9"/>
+      <c r="F117" s="8"/>
+      <c r="G117" s="8"/>
       <c r="H117" s="9"/>
-    </row>
-    <row r="118" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I117" s="9"/>
+      <c r="J117" s="9"/>
+    </row>
+    <row r="118" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A118" s="9" t="s">
         <v>203</v>
       </c>
-      <c r="B118" s="16" t="s">
+      <c r="B118" s="32" t="s">
+        <v>488</v>
+      </c>
+      <c r="D118" s="16" t="s">
         <v>204</v>
       </c>
-      <c r="C118" s="9" t="s">
+      <c r="E118" s="9" t="s">
         <v>205</v>
       </c>
-      <c r="F118" s="9"/>
-      <c r="G118" s="9"/>
       <c r="H118" s="9"/>
-    </row>
-    <row r="119" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I118" s="9"/>
+      <c r="J118" s="9"/>
+    </row>
+    <row r="119" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A119" s="9" t="s">
         <v>242</v>
       </c>
-      <c r="B119" s="16" t="s">
+      <c r="B119" s="32" t="s">
+        <v>489</v>
+      </c>
+      <c r="D119" s="16" t="s">
         <v>243</v>
       </c>
-      <c r="C119" s="9" t="s">
+      <c r="E119" s="9" t="s">
         <v>244</v>
       </c>
-      <c r="F119" s="9"/>
-      <c r="G119" s="9"/>
       <c r="H119" s="9"/>
-    </row>
-    <row r="120" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I119" s="9"/>
+      <c r="J119" s="9"/>
+    </row>
+    <row r="120" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A120" s="8" t="s">
         <v>245</v>
       </c>
-      <c r="B120" s="16">
+      <c r="B120" s="32" t="s">
+        <v>490</v>
+      </c>
+      <c r="D120" s="16">
         <v>2000</v>
       </c>
-      <c r="C120" s="8" t="s">
+      <c r="E120" s="8" t="s">
         <v>246</v>
       </c>
-      <c r="D120" s="8"/>
-      <c r="E120" s="8"/>
-      <c r="F120" s="9"/>
-      <c r="G120" s="9"/>
+      <c r="F120" s="8"/>
+      <c r="G120" s="8"/>
       <c r="H120" s="9"/>
-    </row>
-    <row r="121" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I120" s="9"/>
+      <c r="J120" s="9"/>
+    </row>
+    <row r="121" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A121" s="9" t="s">
         <v>247</v>
       </c>
-      <c r="B121" s="16" t="s">
+      <c r="B121" s="33" t="s">
+        <v>491</v>
+      </c>
+      <c r="C121" s="33" t="s">
+        <v>492</v>
+      </c>
+      <c r="D121" s="16" t="s">
         <v>248</v>
       </c>
-      <c r="C121" s="9" t="s">
+      <c r="E121" s="9" t="s">
         <v>249</v>
       </c>
-      <c r="F121" s="9"/>
-      <c r="G121" s="9"/>
       <c r="H121" s="9"/>
-    </row>
-    <row r="122" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I121" s="9"/>
+      <c r="J121" s="9"/>
+    </row>
+    <row r="122" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A122" s="6" t="s">
         <v>250</v>
       </c>
-      <c r="B122" s="15">
+      <c r="B122" s="31" t="s">
+        <v>493</v>
+      </c>
+      <c r="D122" s="15">
         <v>1999</v>
       </c>
-      <c r="C122" s="6" t="s">
+      <c r="E122" s="6" t="s">
         <v>251</v>
       </c>
-      <c r="D122" s="9"/>
-      <c r="E122" s="9"/>
       <c r="F122" s="9"/>
       <c r="G122" s="9"/>
       <c r="H122" s="9"/>
-    </row>
-    <row r="123" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I122" s="9"/>
+      <c r="J122" s="9"/>
+    </row>
+    <row r="123" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A123" s="12" t="s">
         <v>253</v>
       </c>
-      <c r="B123" s="16">
+      <c r="B123" s="32" t="s">
+        <v>493</v>
+      </c>
+      <c r="D123" s="16">
         <v>2004</v>
       </c>
-      <c r="C123" s="8" t="s">
+      <c r="E123" s="8" t="s">
         <v>252</v>
       </c>
-      <c r="D123" s="8"/>
-      <c r="E123" s="8"/>
-      <c r="F123" s="9"/>
-      <c r="G123" s="9"/>
+      <c r="F123" s="8"/>
+      <c r="G123" s="8"/>
       <c r="H123" s="9"/>
-    </row>
-    <row r="124" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I123" s="9"/>
+      <c r="J123" s="9"/>
+    </row>
+    <row r="124" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A124" s="8" t="s">
         <v>254</v>
       </c>
-      <c r="B124" s="16">
+      <c r="B124" s="32" t="s">
+        <v>493</v>
+      </c>
+      <c r="D124" s="16">
         <v>1945</v>
       </c>
-      <c r="C124" s="8" t="s">
+      <c r="E124" s="8" t="s">
         <v>255</v>
       </c>
-      <c r="D124" s="8"/>
-      <c r="E124" s="8"/>
-      <c r="F124" s="9"/>
-      <c r="G124" s="9"/>
+      <c r="F124" s="8"/>
+      <c r="G124" s="8"/>
       <c r="H124" s="9"/>
-    </row>
-    <row r="125" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I124" s="9"/>
+      <c r="J124" s="9"/>
+    </row>
+    <row r="125" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A125" s="8" t="s">
         <v>256</v>
       </c>
-      <c r="B125" s="16">
+      <c r="B125" s="33" t="s">
+        <v>494</v>
+      </c>
+      <c r="C125" s="33" t="s">
+        <v>495</v>
+      </c>
+      <c r="D125" s="16">
         <v>1997</v>
       </c>
-      <c r="C125" s="8" t="s">
+      <c r="E125" s="8" t="s">
         <v>257</v>
       </c>
-      <c r="D125" s="8"/>
-      <c r="E125" s="8"/>
-      <c r="F125" s="9"/>
-      <c r="G125" s="9"/>
+      <c r="F125" s="8"/>
+      <c r="G125" s="8"/>
       <c r="H125" s="9"/>
-    </row>
-    <row r="126" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I125" s="9"/>
+      <c r="J125" s="9"/>
+    </row>
+    <row r="126" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A126" s="8" t="s">
         <v>258</v>
       </c>
-      <c r="B126" s="16">
+      <c r="B126" s="33" t="s">
+        <v>496</v>
+      </c>
+      <c r="C126" s="33" t="s">
+        <v>497</v>
+      </c>
+      <c r="D126" s="16">
         <v>1996</v>
       </c>
-      <c r="C126" s="8" t="s">
+      <c r="E126" s="8" t="s">
         <v>259</v>
       </c>
-      <c r="D126" s="8"/>
-      <c r="E126" s="8"/>
-      <c r="F126" s="9"/>
-      <c r="G126" s="9"/>
+      <c r="F126" s="8"/>
+      <c r="G126" s="8"/>
       <c r="H126" s="9"/>
-    </row>
-    <row r="127" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I126" s="9"/>
+      <c r="J126" s="9"/>
+    </row>
+    <row r="127" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A127" s="14" t="s">
         <v>260</v>
       </c>
-      <c r="B127" s="16" t="s">
+      <c r="B127" s="31" t="s">
+        <v>488</v>
+      </c>
+      <c r="D127" s="16" t="s">
         <v>261</v>
       </c>
-      <c r="C127" s="9" t="s">
+      <c r="E127" s="9" t="s">
         <v>262</v>
       </c>
-      <c r="F127" s="9"/>
-      <c r="G127" s="9"/>
       <c r="H127" s="9"/>
-    </row>
-    <row r="128" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I127" s="9"/>
+      <c r="J127" s="9"/>
+    </row>
+    <row r="128" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A128" s="8" t="s">
         <v>264</v>
       </c>
-      <c r="B128" s="16">
+      <c r="B128" s="32" t="s">
+        <v>379</v>
+      </c>
+      <c r="D128" s="16">
         <v>1988</v>
       </c>
-      <c r="C128" s="8" t="s">
+      <c r="E128" s="8" t="s">
         <v>263</v>
       </c>
-      <c r="D128" s="8"/>
-      <c r="E128" s="8"/>
-      <c r="F128" s="9"/>
-      <c r="G128" s="9"/>
+      <c r="F128" s="8"/>
+      <c r="G128" s="8"/>
       <c r="H128" s="9"/>
-    </row>
-    <row r="129" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I128" s="9"/>
+      <c r="J128" s="9"/>
+    </row>
+    <row r="129" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A129" s="8" t="s">
         <v>265</v>
       </c>
-      <c r="B129" s="16">
+      <c r="B129" s="33" t="s">
+        <v>498</v>
+      </c>
+      <c r="C129" s="33" t="s">
+        <v>499</v>
+      </c>
+      <c r="D129" s="16">
         <v>1991</v>
       </c>
-      <c r="C129" s="8" t="s">
+      <c r="E129" s="8" t="s">
         <v>266</v>
       </c>
-      <c r="D129" s="8"/>
-      <c r="E129" s="8"/>
-      <c r="F129" s="9"/>
-      <c r="G129" s="9"/>
+      <c r="F129" s="8"/>
+      <c r="G129" s="8"/>
       <c r="H129" s="9"/>
-    </row>
-    <row r="130" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I129" s="9"/>
+      <c r="J129" s="9"/>
+    </row>
+    <row r="130" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A130" s="6" t="s">
         <v>265</v>
       </c>
-      <c r="B130" s="15">
+      <c r="B130" s="31" t="s">
+        <v>500</v>
+      </c>
+      <c r="D130" s="15">
         <v>1991</v>
       </c>
-      <c r="C130" s="6" t="s">
+      <c r="E130" s="6" t="s">
         <v>266</v>
       </c>
-      <c r="D130" s="9"/>
-      <c r="E130" s="9"/>
       <c r="F130" s="9"/>
       <c r="G130" s="9"/>
       <c r="H130" s="9"/>
-    </row>
-    <row r="131" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I130" s="9"/>
+      <c r="J130" s="9"/>
+    </row>
+    <row r="131" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A131" s="13" t="s">
         <v>267</v>
       </c>
-      <c r="B131" s="19">
+      <c r="B131" s="32" t="s">
+        <v>501</v>
+      </c>
+      <c r="D131" s="19">
         <v>2004</v>
       </c>
-      <c r="C131" s="13" t="s">
+      <c r="E131" s="13" t="s">
         <v>268</v>
       </c>
-      <c r="D131" s="9"/>
-      <c r="E131" s="9"/>
       <c r="F131" s="9"/>
       <c r="G131" s="9"/>
       <c r="H131" s="9"/>
-    </row>
-    <row r="132" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I131" s="9"/>
+      <c r="J131" s="9"/>
+    </row>
+    <row r="132" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A132" s="12" t="s">
         <v>269</v>
       </c>
-      <c r="B132" s="16">
+      <c r="B132" s="32" t="s">
+        <v>502</v>
+      </c>
+      <c r="D132" s="16">
         <v>2004</v>
       </c>
-      <c r="C132" s="8" t="s">
+      <c r="E132" s="8" t="s">
         <v>268</v>
       </c>
-      <c r="D132" s="8"/>
-      <c r="E132" s="9"/>
-      <c r="F132" s="9"/>
+      <c r="F132" s="8"/>
       <c r="G132" s="9"/>
       <c r="H132" s="9"/>
-    </row>
-    <row r="133" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I132" s="9"/>
+      <c r="J132" s="9"/>
+    </row>
+    <row r="133" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A133" s="8" t="s">
         <v>270</v>
       </c>
-      <c r="B133" s="16">
+      <c r="B133" s="32" t="s">
+        <v>503</v>
+      </c>
+      <c r="D133" s="16">
         <v>1964</v>
       </c>
-      <c r="C133" s="8" t="s">
+      <c r="E133" s="8" t="s">
         <v>271</v>
       </c>
-      <c r="D133" s="8"/>
-      <c r="E133" s="8"/>
-      <c r="F133" s="9"/>
-      <c r="G133" s="9"/>
+      <c r="F133" s="8"/>
+      <c r="G133" s="8"/>
       <c r="H133" s="9"/>
-    </row>
-    <row r="134" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I133" s="9"/>
+      <c r="J133" s="9"/>
+    </row>
+    <row r="134" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A134" s="8" t="s">
         <v>272</v>
       </c>
-      <c r="B134" s="16">
+      <c r="B134" s="32" t="s">
+        <v>503</v>
+      </c>
+      <c r="D134" s="16">
         <v>1921</v>
       </c>
-      <c r="C134" s="8" t="s">
+      <c r="E134" s="8" t="s">
         <v>273</v>
       </c>
-      <c r="D134" s="8"/>
-      <c r="E134" s="8"/>
-      <c r="F134" s="9"/>
-      <c r="G134" s="9"/>
+      <c r="F134" s="8"/>
+      <c r="G134" s="8"/>
       <c r="H134" s="9"/>
-    </row>
-    <row r="135" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I134" s="9"/>
+      <c r="J134" s="9"/>
+    </row>
+    <row r="135" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A135" s="13" t="s">
         <v>331</v>
       </c>
-      <c r="B135" s="19">
+      <c r="B135" s="33" t="s">
+        <v>504</v>
+      </c>
+      <c r="C135" s="33" t="s">
+        <v>505</v>
+      </c>
+      <c r="D135" s="19">
         <v>1963</v>
       </c>
-      <c r="C135" s="13" t="s">
+      <c r="E135" s="13" t="s">
         <v>332</v>
       </c>
-      <c r="D135" s="9"/>
-      <c r="E135" s="9"/>
       <c r="F135" s="9"/>
-    </row>
-    <row r="136" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G135" s="9"/>
+      <c r="H135" s="9"/>
+    </row>
+    <row r="136" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A136" s="13" t="s">
         <v>333</v>
       </c>
-      <c r="B136" s="19">
+      <c r="B136" s="32" t="s">
+        <v>506</v>
+      </c>
+      <c r="D136" s="19">
         <v>1963</v>
       </c>
-      <c r="C136" s="13" t="s">
+      <c r="E136" s="13" t="s">
         <v>334</v>
       </c>
-      <c r="D136" s="9"/>
-      <c r="E136" s="9"/>
       <c r="F136" s="9"/>
-    </row>
-    <row r="137" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G136" s="9"/>
+      <c r="H136" s="9"/>
+    </row>
+    <row r="137" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A137" s="13" t="s">
         <v>335</v>
       </c>
-      <c r="B137" s="19">
+      <c r="B137" s="32" t="s">
+        <v>507</v>
+      </c>
+      <c r="D137" s="19">
         <v>1963</v>
       </c>
-      <c r="C137" s="13" t="s">
+      <c r="E137" s="13" t="s">
         <v>336</v>
       </c>
-      <c r="D137" s="9"/>
-      <c r="E137" s="9"/>
       <c r="F137" s="9"/>
-    </row>
-    <row r="138" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G137" s="9"/>
+      <c r="H137" s="9"/>
+    </row>
+    <row r="138" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A138" s="13" t="s">
         <v>337</v>
       </c>
-      <c r="B138" s="19">
+      <c r="B138" s="32" t="s">
+        <v>501</v>
+      </c>
+      <c r="D138" s="19">
         <v>1963</v>
       </c>
-      <c r="C138" s="13" t="s">
+      <c r="E138" s="13" t="s">
         <v>338</v>
       </c>
-      <c r="D138" s="9"/>
-      <c r="E138" s="9"/>
       <c r="F138" s="9"/>
-    </row>
-    <row r="139" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G138" s="9"/>
+      <c r="H138" s="9"/>
+    </row>
+    <row r="139" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A139" s="6" t="s">
         <v>339</v>
       </c>
-      <c r="B139" s="15">
+      <c r="B139" s="31" t="s">
+        <v>507</v>
+      </c>
+      <c r="D139" s="15">
         <v>1963</v>
       </c>
-      <c r="C139" s="6" t="s">
+      <c r="E139" s="6" t="s">
         <v>340</v>
       </c>
-      <c r="D139" s="9"/>
-      <c r="E139" s="9"/>
       <c r="F139" s="9"/>
-    </row>
-    <row r="140" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G139" s="9"/>
+      <c r="H139" s="9"/>
+    </row>
+    <row r="140" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A140" s="6" t="s">
         <v>341</v>
       </c>
-      <c r="B140" s="15">
+      <c r="B140" s="31" t="s">
+        <v>501</v>
+      </c>
+      <c r="D140" s="15">
         <v>1963</v>
       </c>
-      <c r="C140" s="6" t="s">
+      <c r="E140" s="6" t="s">
         <v>342</v>
       </c>
-      <c r="D140" s="9"/>
-      <c r="E140" s="9"/>
       <c r="F140" s="9"/>
-    </row>
-    <row r="141" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G140" s="9"/>
+      <c r="H140" s="9"/>
+    </row>
+    <row r="141" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A141" s="13" t="s">
         <v>343</v>
       </c>
-      <c r="B141" s="19">
+      <c r="B141" s="32" t="s">
+        <v>508</v>
+      </c>
+      <c r="D141" s="19">
         <v>1963</v>
       </c>
-      <c r="C141" s="13" t="s">
+      <c r="E141" s="13" t="s">
         <v>344</v>
       </c>
-      <c r="D141" s="9"/>
-      <c r="E141" s="9"/>
       <c r="F141" s="9"/>
-    </row>
-    <row r="142" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G141" s="9"/>
+      <c r="H141" s="9"/>
+    </row>
+    <row r="142" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A142" s="13" t="s">
         <v>274</v>
       </c>
-      <c r="B142" s="19">
+      <c r="B142" s="32" t="s">
+        <v>509</v>
+      </c>
+      <c r="D142" s="19">
         <v>1997</v>
       </c>
-      <c r="C142" s="13" t="s">
+      <c r="E142" s="13" t="s">
         <v>275</v>
       </c>
-      <c r="D142" s="9"/>
-      <c r="E142" s="9"/>
       <c r="F142" s="9"/>
       <c r="G142" s="9"/>
       <c r="H142" s="9"/>
-    </row>
-    <row r="143" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I142" s="9"/>
+      <c r="J142" s="9"/>
+    </row>
+    <row r="143" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A143" s="8" t="s">
         <v>274</v>
       </c>
-      <c r="B143" s="16">
+      <c r="B143" s="32" t="s">
+        <v>488</v>
+      </c>
+      <c r="D143" s="16">
         <v>1997</v>
       </c>
-      <c r="C143" s="8" t="s">
+      <c r="E143" s="8" t="s">
         <v>275</v>
       </c>
-      <c r="D143" s="8"/>
-      <c r="E143" s="8"/>
-      <c r="F143" s="9"/>
-      <c r="G143" s="9"/>
+      <c r="F143" s="8"/>
+      <c r="G143" s="8"/>
       <c r="H143" s="9"/>
-    </row>
-    <row r="144" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I143" s="9"/>
+      <c r="J143" s="9"/>
+    </row>
+    <row r="144" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A144" s="9" t="s">
         <v>276</v>
       </c>
-      <c r="B144" s="16" t="s">
+      <c r="B144" s="33" t="s">
+        <v>510</v>
+      </c>
+      <c r="C144" s="33" t="s">
+        <v>511</v>
+      </c>
+      <c r="D144" s="16" t="s">
         <v>277</v>
       </c>
-      <c r="C144" s="9" t="s">
+      <c r="E144" s="9" t="s">
         <v>278</v>
       </c>
-      <c r="F144" s="9"/>
-      <c r="G144" s="9"/>
       <c r="H144" s="9"/>
-    </row>
-    <row r="145" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I144" s="9"/>
+      <c r="J144" s="9"/>
+    </row>
+    <row r="145" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A145" s="9" t="s">
         <v>279</v>
       </c>
-      <c r="B145" s="16">
+      <c r="B145" s="33" t="s">
+        <v>512</v>
+      </c>
+      <c r="D145" s="16">
         <v>1977</v>
       </c>
-      <c r="C145" s="9" t="s">
+      <c r="E145" s="9" t="s">
         <v>280</v>
       </c>
-      <c r="D145" s="9"/>
-      <c r="E145" s="9"/>
       <c r="F145" s="9"/>
       <c r="G145" s="9"/>
       <c r="H145" s="9"/>
-    </row>
-    <row r="146" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I145" s="9"/>
+      <c r="J145" s="9"/>
+    </row>
+    <row r="146" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A146" s="9" t="s">
         <v>352</v>
       </c>
-      <c r="B146" s="16" t="s">
+      <c r="B146" s="33" t="s">
+        <v>513</v>
+      </c>
+      <c r="C146" s="33" t="s">
+        <v>514</v>
+      </c>
+      <c r="D146" s="16" t="s">
         <v>353</v>
       </c>
-      <c r="C146" s="9" t="s">
+      <c r="E146" s="9" t="s">
         <v>354</v>
       </c>
-      <c r="F146" s="9"/>
-      <c r="G146" s="9"/>
       <c r="H146" s="9"/>
-    </row>
-    <row r="147" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I146" s="9"/>
+      <c r="J146" s="9"/>
+    </row>
+    <row r="147" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A147" s="9" t="s">
         <v>281</v>
       </c>
-      <c r="B147" s="16" t="s">
+      <c r="B147" s="33" t="s">
+        <v>515</v>
+      </c>
+      <c r="C147" s="33" t="s">
+        <v>516</v>
+      </c>
+      <c r="D147" s="16" t="s">
         <v>97</v>
       </c>
-      <c r="C147" s="9" t="s">
+      <c r="E147" s="9" t="s">
         <v>282</v>
       </c>
-      <c r="F147" s="9"/>
-      <c r="G147" s="9"/>
       <c r="H147" s="9"/>
-    </row>
-    <row r="148" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I147" s="9"/>
+      <c r="J147" s="9"/>
+    </row>
+    <row r="148" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A148" s="9" t="s">
         <v>283</v>
       </c>
-      <c r="B148" s="16">
+      <c r="B148" s="33" t="s">
+        <v>517</v>
+      </c>
+      <c r="D148" s="16">
         <v>1965</v>
       </c>
-      <c r="C148" s="9" t="s">
+      <c r="E148" s="9" t="s">
         <v>284</v>
       </c>
-      <c r="D148" s="9"/>
-      <c r="E148" s="9"/>
       <c r="F148" s="9"/>
       <c r="G148" s="9"/>
       <c r="H148" s="9"/>
-    </row>
-    <row r="149" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I148" s="9"/>
+      <c r="J148" s="9"/>
+    </row>
+    <row r="149" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A149" s="9" t="s">
         <v>285</v>
       </c>
-      <c r="B149" s="16" t="s">
+      <c r="B149" s="33" t="s">
+        <v>518</v>
+      </c>
+      <c r="C149" s="33" t="s">
+        <v>519</v>
+      </c>
+      <c r="D149" s="16" t="s">
         <v>286</v>
       </c>
-      <c r="C149" s="9" t="s">
+      <c r="E149" s="9" t="s">
         <v>287</v>
       </c>
-      <c r="F149" s="9"/>
-      <c r="G149" s="9"/>
       <c r="H149" s="9"/>
-    </row>
-    <row r="150" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I149" s="9"/>
+      <c r="J149" s="9"/>
+    </row>
+    <row r="150" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A150" s="9" t="s">
         <v>288</v>
       </c>
-      <c r="B150" s="16">
+      <c r="B150" s="33" t="s">
+        <v>520</v>
+      </c>
+      <c r="D150" s="16">
         <v>2004</v>
       </c>
-      <c r="C150" s="9" t="s">
+      <c r="E150" s="9" t="s">
         <v>289</v>
       </c>
-      <c r="D150" s="9"/>
-      <c r="E150" s="9"/>
       <c r="F150" s="9"/>
       <c r="G150" s="9"/>
       <c r="H150" s="9"/>
-    </row>
-    <row r="151" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I150" s="9"/>
+      <c r="J150" s="9"/>
+    </row>
+    <row r="151" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A151" s="6" t="s">
         <v>290</v>
       </c>
-      <c r="B151" s="15">
+      <c r="B151" s="31" t="s">
+        <v>521</v>
+      </c>
+      <c r="D151" s="15">
         <v>1957</v>
       </c>
-      <c r="C151" s="6" t="s">
+      <c r="E151" s="6" t="s">
         <v>209</v>
       </c>
-      <c r="D151" s="9"/>
-      <c r="E151" s="9"/>
       <c r="F151" s="9"/>
-    </row>
-    <row r="152" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G151" s="9"/>
+      <c r="H151" s="9"/>
+    </row>
+    <row r="152" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A152" s="9" t="s">
         <v>291</v>
       </c>
-      <c r="B152" s="16">
+      <c r="B152" s="33" t="s">
+        <v>522</v>
+      </c>
+      <c r="D152" s="16">
         <v>1971</v>
       </c>
-      <c r="C152" s="9" t="s">
+      <c r="E152" s="9" t="s">
         <v>292</v>
       </c>
-      <c r="D152" s="9"/>
-      <c r="E152" s="9"/>
       <c r="F152" s="9"/>
       <c r="G152" s="9"/>
-    </row>
-    <row r="153" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H152" s="9"/>
+      <c r="I152" s="9"/>
+    </row>
+    <row r="153" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A153" s="6" t="s">
         <v>345</v>
       </c>
-      <c r="B153" s="15">
+      <c r="B153" s="31" t="s">
+        <v>523</v>
+      </c>
+      <c r="D153" s="15">
         <v>1990</v>
       </c>
-      <c r="C153" s="6" t="s">
+      <c r="E153" s="6" t="s">
         <v>346</v>
       </c>
-      <c r="D153" s="9"/>
-      <c r="E153" s="9"/>
       <c r="F153" s="9"/>
       <c r="G153" s="9"/>
-    </row>
-    <row r="154" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H153" s="9"/>
+      <c r="I153" s="9"/>
+    </row>
+    <row r="154" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A154" s="6" t="s">
         <v>294</v>
       </c>
-      <c r="B154" s="15">
+      <c r="B154" s="31" t="s">
+        <v>524</v>
+      </c>
+      <c r="C154" s="31" t="s">
+        <v>525</v>
+      </c>
+      <c r="D154" s="15">
         <v>1968</v>
       </c>
-      <c r="C154" s="6" t="s">
+      <c r="E154" s="6" t="s">
         <v>293</v>
       </c>
-      <c r="D154" s="7"/>
-      <c r="E154" s="7"/>
-    </row>
-    <row r="155" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F154" s="7"/>
+      <c r="G154" s="7"/>
+    </row>
+    <row r="155" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A155" s="6" t="s">
         <v>295</v>
       </c>
-      <c r="B155" s="15">
+      <c r="B155" s="31" t="s">
+        <v>526</v>
+      </c>
+      <c r="D155" s="15">
         <v>1963</v>
       </c>
-      <c r="C155" s="6" t="s">
+      <c r="E155" s="6" t="s">
         <v>296</v>
       </c>
-      <c r="D155" s="9"/>
-      <c r="E155" s="9"/>
       <c r="F155" s="9"/>
       <c r="G155" s="9"/>
-    </row>
-    <row r="156" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H155" s="9"/>
+      <c r="I155" s="9"/>
+    </row>
+    <row r="156" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A156" s="6" t="s">
         <v>297</v>
       </c>
-      <c r="B156" s="15">
+      <c r="B156" s="31" t="s">
+        <v>526</v>
+      </c>
+      <c r="D156" s="15">
         <v>1965</v>
       </c>
-      <c r="C156" s="6" t="s">
+      <c r="E156" s="6" t="s">
         <v>298</v>
       </c>
-      <c r="D156" s="9"/>
-      <c r="E156" s="9"/>
       <c r="F156" s="9"/>
       <c r="G156" s="9"/>
-    </row>
-    <row r="157" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H156" s="9"/>
+      <c r="I156" s="9"/>
+    </row>
+    <row r="157" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A157" s="9" t="s">
         <v>299</v>
       </c>
-      <c r="B157" s="16">
+      <c r="B157" s="33" t="s">
+        <v>526</v>
+      </c>
+      <c r="D157" s="16">
         <v>1965</v>
       </c>
-      <c r="C157" s="9" t="s">
+      <c r="E157" s="9" t="s">
         <v>300</v>
       </c>
-      <c r="D157" s="9"/>
-      <c r="E157" s="9"/>
       <c r="F157" s="9"/>
       <c r="G157" s="9"/>
       <c r="H157" s="9"/>
       <c r="I157" s="9"/>
-    </row>
-    <row r="158" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J157" s="9"/>
+      <c r="K157" s="9"/>
+    </row>
+    <row r="158" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A158" s="6" t="s">
         <v>301</v>
       </c>
-      <c r="B158" s="15">
+      <c r="B158" s="31" t="s">
+        <v>526</v>
+      </c>
+      <c r="D158" s="15">
         <v>1966</v>
       </c>
-      <c r="C158" s="6" t="s">
+      <c r="E158" s="6" t="s">
         <v>302</v>
       </c>
-      <c r="D158" s="9"/>
-      <c r="E158" s="9"/>
       <c r="F158" s="9"/>
       <c r="G158" s="9"/>
       <c r="H158" s="9"/>
       <c r="I158" s="9"/>
-    </row>
-    <row r="159" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J158" s="9"/>
+      <c r="K158" s="9"/>
+    </row>
+    <row r="159" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A159" s="9" t="s">
         <v>303</v>
       </c>
-      <c r="B159" s="16">
+      <c r="B159" s="33" t="s">
+        <v>526</v>
+      </c>
+      <c r="D159" s="16">
         <v>1967</v>
       </c>
-      <c r="C159" s="9" t="s">
+      <c r="E159" s="9" t="s">
         <v>304</v>
       </c>
-      <c r="D159" s="9"/>
-      <c r="E159" s="9"/>
       <c r="F159" s="9"/>
       <c r="G159" s="9"/>
       <c r="H159" s="9"/>
-    </row>
-    <row r="160" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I159" s="9"/>
+      <c r="J159" s="9"/>
+    </row>
+    <row r="160" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A160" s="6" t="s">
         <v>305</v>
       </c>
-      <c r="B160" s="15">
+      <c r="B160" s="31" t="s">
+        <v>527</v>
+      </c>
+      <c r="C160" s="31" t="s">
+        <v>528</v>
+      </c>
+      <c r="D160" s="15">
         <v>1967</v>
       </c>
-      <c r="C160" s="6" t="s">
+      <c r="E160" s="6" t="s">
         <v>293</v>
       </c>
-      <c r="D160" s="7"/>
-      <c r="E160" s="7"/>
-      <c r="H160" s="9"/>
-    </row>
-    <row r="161" spans="9:10" x14ac:dyDescent="0.25">
-      <c r="I161" s="9"/>
-      <c r="J161" s="9"/>
-    </row>
-    <row r="202" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="203" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F160" s="7"/>
+      <c r="G160" s="7"/>
+      <c r="J160" s="9"/>
+    </row>
+    <row r="161" spans="11:12" x14ac:dyDescent="0.25">
+      <c r="K161" s="9"/>
+      <c r="L161" s="9"/>
+    </row>
+    <row r="202" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="203" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A203" s="2"/>
-      <c r="B203" s="21"/>
+      <c r="B203" s="2"/>
       <c r="C203" s="2"/>
-    </row>
-    <row r="204" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D203" s="21"/>
+      <c r="E203" s="2"/>
+    </row>
+    <row r="204" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A204" s="2"/>
-      <c r="B204" s="21"/>
+      <c r="B204" s="2"/>
       <c r="C204" s="2"/>
-    </row>
-    <row r="205" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D204" s="21"/>
+      <c r="E204" s="2"/>
+    </row>
+    <row r="205" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A205" s="2"/>
-      <c r="B205" s="21"/>
+      <c r="B205" s="2"/>
       <c r="C205" s="2"/>
-    </row>
-    <row r="206" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D205" s="21"/>
+      <c r="E205" s="2"/>
+    </row>
+    <row r="206" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A206" s="2"/>
-      <c r="B206" s="21"/>
+      <c r="B206" s="2"/>
       <c r="C206" s="2"/>
-    </row>
-    <row r="207" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D206" s="21"/>
+      <c r="E206" s="2"/>
+    </row>
+    <row r="207" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A207" s="2"/>
-      <c r="B207" s="21"/>
+      <c r="B207" s="2"/>
       <c r="C207" s="2"/>
-    </row>
-    <row r="208" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D207" s="21"/>
+      <c r="E207" s="2"/>
+    </row>
+    <row r="208" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A208" s="2"/>
-      <c r="B208" s="21"/>
+      <c r="B208" s="2"/>
       <c r="C208" s="2"/>
-    </row>
-    <row r="209" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D208" s="21"/>
+      <c r="E208" s="2"/>
+    </row>
+    <row r="209" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A209" s="2"/>
-      <c r="B209" s="21"/>
+      <c r="B209" s="2"/>
       <c r="C209" s="2"/>
+      <c r="D209" s="21"/>
+      <c r="E209" s="2"/>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:J211">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:L211">
     <sortCondition ref="A2:A211"/>
   </sortState>
   <printOptions gridLines="1"/>
